--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_7_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_7_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2056704.663000972</v>
+        <v>-2059025.69720498</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5419659.775339951</v>
+        <v>5419659.775339952</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>244.5627323611424</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
-        <v>57.4412289041991</v>
+        <v>227.9030768592324</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,46 +674,46 @@
         <v>15.28796821707176</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>209.9064962068211</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>244.5627323611424</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>8.395781178313161</v>
-      </c>
-      <c r="R2" t="n">
-        <v>148.9413660216818</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>223.0311969618593</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3356148920818</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,19 +789,19 @@
         <v>171.5363898835276</v>
       </c>
       <c r="T3" t="n">
-        <v>35.12029096874182</v>
+        <v>11.56268097293324</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>135.1613884042816</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>137.081565665098</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>250.3284900238521</v>
+        <v>258.1351723037344</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4.097100052852173</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>222.6908602868995</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>263.2420339516666</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>82.37112300737623</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.2940166796957</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>53.08999441815063</v>
       </c>
       <c r="S6" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>142.3870695882587</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>159.8350691069748</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>219.3589709503884</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H8" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>80.17538131472436</v>
       </c>
     </row>
     <row r="9">
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>112.4237882760383</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>111.5079271034444</v>
+        <v>45.31133215986129</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T9" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9364262421938</v>
@@ -1275,7 +1275,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>94.25736106477147</v>
+        <v>28.69723130130875</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>412.0039288346096</v>
       </c>
       <c r="H11" t="n">
-        <v>305.6908777163352</v>
+        <v>256.0307897012142</v>
       </c>
       <c r="I11" t="n">
-        <v>83.29856791444571</v>
+        <v>83.2985679144457</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.18837876364945</v>
+        <v>133.84846677877</v>
       </c>
       <c r="T11" t="n">
         <v>208.6553145651309</v>
@@ -1467,7 +1467,7 @@
         <v>95.18908378615539</v>
       </c>
       <c r="I12" t="n">
-        <v>28.627364216003</v>
+        <v>28.62736421600299</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>174.8304044868659</v>
+        <v>119.3225026477356</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>166.5112473499198</v>
       </c>
       <c r="H13" t="n">
-        <v>149.0710097406109</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.9508977977397</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>110.7592594295882</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>198.2289047608879</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1588,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>299.0892470254834</v>
       </c>
       <c r="I14" t="n">
-        <v>58.44717114070582</v>
+        <v>58.44717114070579</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>91.85809787149991</v>
       </c>
       <c r="I15" t="n">
-        <v>16.75259608246732</v>
+        <v>16.75259608246731</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>146.5001974552034</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>97.75799402710823</v>
+        <v>97.75799402710821</v>
       </c>
       <c r="S16" t="n">
         <v>193.189797244399</v>
@@ -1822,10 +1822,10 @@
         <v>286.222544846968</v>
       </c>
       <c r="V16" t="n">
-        <v>95.68584403374943</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>275.4260122608098</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1862,7 +1862,7 @@
         <v>299.0892470254834</v>
       </c>
       <c r="I17" t="n">
-        <v>58.44717114070582</v>
+        <v>58.44717114070579</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>91.85809787149991</v>
       </c>
       <c r="I18" t="n">
-        <v>16.75259608246732</v>
+        <v>16.75259608246731</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>166.2220966838719</v>
       </c>
       <c r="H19" t="n">
-        <v>114.7078579441259</v>
+        <v>146.5001974552034</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>193.189797244399</v>
       </c>
       <c r="T19" t="n">
         <v>220.3876361823193</v>
       </c>
       <c r="U19" t="n">
-        <v>286.222544846968</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>238.1610804279708</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072263</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2099,7 +2099,7 @@
         <v>299.0892470254834</v>
       </c>
       <c r="I20" t="n">
-        <v>58.44717114070582</v>
+        <v>58.44717114070579</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2178,7 @@
         <v>91.85809787149991</v>
       </c>
       <c r="I21" t="n">
-        <v>16.75259608246732</v>
+        <v>16.75259608246731</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,13 +2239,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>104.9719740954136</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2553486769544</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>97.75799402710821</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>193.189797244399</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>181.9896713853936</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2336,7 +2336,7 @@
         <v>299.0892470254834</v>
       </c>
       <c r="I23" t="n">
-        <v>58.44717114070582</v>
+        <v>58.44717114070579</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>91.85809787149991</v>
       </c>
       <c r="I24" t="n">
-        <v>16.75259608246732</v>
+        <v>16.75259608246731</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>104.3497081698736</v>
+        <v>166.2220966838719</v>
       </c>
       <c r="H25" t="n">
         <v>146.5001974552034</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>97.75799402710823</v>
+        <v>97.75799402710821</v>
       </c>
       <c r="S25" t="n">
-        <v>193.189797244399</v>
+        <v>73.51520958326147</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>220.3876361823193</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.222544846968</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>299.0892470254834</v>
       </c>
       <c r="I26" t="n">
-        <v>58.44717114070582</v>
+        <v>58.44717114070579</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>91.85809787149991</v>
       </c>
       <c r="I27" t="n">
-        <v>16.75259608246732</v>
+        <v>16.75259608246731</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>146.5001974552034</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>102.2553486769544</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>97.75799402710823</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>193.189797244399</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>220.3876361823193</v>
       </c>
       <c r="U28" t="n">
-        <v>16.29003809563521</v>
+        <v>286.222544846968</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>269.8465138750494</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2810,7 @@
         <v>299.0892470254834</v>
       </c>
       <c r="I29" t="n">
-        <v>58.44717114070582</v>
+        <v>58.44717114070579</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>91.85809787149991</v>
       </c>
       <c r="I30" t="n">
-        <v>16.75259608246732</v>
+        <v>16.75259608246731</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.2220966838719</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>97.75799402710823</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>36.22223340824453</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.222544846968</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>209.8792612011078</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>299.0892470254834</v>
       </c>
       <c r="I32" t="n">
-        <v>58.44717114070582</v>
+        <v>58.44717114070579</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>91.85809787149991</v>
       </c>
       <c r="I33" t="n">
-        <v>16.75259608246732</v>
+        <v>16.75259608246731</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>123.9787351161643</v>
+        <v>123.9787351161644</v>
       </c>
       <c r="C34" t="n">
-        <v>111.3935760328548</v>
+        <v>111.3935760328549</v>
       </c>
       <c r="D34" t="n">
-        <v>92.76222795243936</v>
+        <v>92.76222795243942</v>
       </c>
       <c r="E34" t="n">
-        <v>90.58071758079618</v>
+        <v>90.58071758079623</v>
       </c>
       <c r="F34" t="n">
-        <v>89.56780295715825</v>
+        <v>89.56780295715831</v>
       </c>
       <c r="G34" t="n">
         <v>110.3688516180989</v>
       </c>
       <c r="H34" t="n">
-        <v>90.64695238943084</v>
+        <v>90.64695238943048</v>
       </c>
       <c r="I34" t="n">
-        <v>46.40210361118145</v>
+        <v>46.4021036111815</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.90474896133523</v>
+        <v>41.90474896133527</v>
       </c>
       <c r="S34" t="n">
         <v>137.336552178626</v>
       </c>
       <c r="T34" t="n">
-        <v>164.5343911165463</v>
+        <v>164.5343911165464</v>
       </c>
       <c r="U34" t="n">
-        <v>230.369299781195</v>
+        <v>230.3692997811951</v>
       </c>
       <c r="V34" t="n">
-        <v>196.284398258055</v>
+        <v>196.2843982580551</v>
       </c>
       <c r="W34" t="n">
-        <v>230.669753270818</v>
+        <v>230.6697532708181</v>
       </c>
       <c r="X34" t="n">
         <v>169.8564103232642</v>
       </c>
       <c r="Y34" t="n">
-        <v>162.7314082863218</v>
+        <v>162.7314082863219</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>326.8805965977076</v>
       </c>
       <c r="C35" t="n">
-        <v>309.4196467052345</v>
+        <v>309.4196467052346</v>
       </c>
       <c r="D35" t="n">
         <v>298.82979655491</v>
@@ -3278,13 +3278,13 @@
         <v>351.0228006759385</v>
       </c>
       <c r="G35" t="n">
-        <v>355.506071959648</v>
+        <v>355.5060719596481</v>
       </c>
       <c r="H35" t="n">
         <v>243.2360019597104</v>
       </c>
       <c r="I35" t="n">
-        <v>2.593926074932824</v>
+        <v>2.593926074932605</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>63.30613011111392</v>
+        <v>63.30613011111396</v>
       </c>
       <c r="T35" t="n">
-        <v>149.9802813046352</v>
+        <v>149.9802813046353</v>
       </c>
       <c r="U35" t="n">
         <v>195.1769342028864</v>
       </c>
       <c r="V35" t="n">
-        <v>271.8990134043619</v>
+        <v>271.899013404362</v>
       </c>
       <c r="W35" t="n">
         <v>293.38772365164</v>
@@ -3332,7 +3332,7 @@
         <v>313.8778556126961</v>
       </c>
       <c r="Y35" t="n">
-        <v>330.3846935902806</v>
+        <v>330.3846935902807</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>91.85809787149991</v>
       </c>
       <c r="I36" t="n">
-        <v>16.75259608246732</v>
+        <v>16.75259608246731</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>123.9787351161643</v>
+        <v>123.9787351161644</v>
       </c>
       <c r="C37" t="n">
-        <v>111.3935760328548</v>
+        <v>111.3935760328549</v>
       </c>
       <c r="D37" t="n">
-        <v>92.76222795243936</v>
+        <v>92.76222795243942</v>
       </c>
       <c r="E37" t="n">
-        <v>90.58071758079618</v>
+        <v>90.58071758079623</v>
       </c>
       <c r="F37" t="n">
-        <v>89.56780295715825</v>
+        <v>89.56780295715831</v>
       </c>
       <c r="G37" t="n">
-        <v>110.3688516180989</v>
+        <v>110.3688516180984</v>
       </c>
       <c r="H37" t="n">
-        <v>90.64695238943042</v>
+        <v>90.64695238943048</v>
       </c>
       <c r="I37" t="n">
-        <v>46.40210361118145</v>
+        <v>46.4021036111815</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.90474896133523</v>
+        <v>41.90474896133527</v>
       </c>
       <c r="S37" t="n">
-        <v>137.336552178626</v>
+        <v>137.3365521786261</v>
       </c>
       <c r="T37" t="n">
-        <v>164.5343911165463</v>
+        <v>164.5343911165464</v>
       </c>
       <c r="U37" t="n">
         <v>230.369299781195</v>
       </c>
       <c r="V37" t="n">
-        <v>196.284398258055</v>
+        <v>196.2843982580551</v>
       </c>
       <c r="W37" t="n">
-        <v>230.669753270818</v>
+        <v>230.6697532708181</v>
       </c>
       <c r="X37" t="n">
         <v>169.8564103232642</v>
       </c>
       <c r="Y37" t="n">
-        <v>162.7314082863218</v>
+        <v>162.7314082863219</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>326.0771250064888</v>
       </c>
       <c r="F38" t="n">
-        <v>351.0228006759386</v>
+        <v>351.0228006759385</v>
       </c>
       <c r="G38" t="n">
         <v>355.5060719596481</v>
@@ -3521,7 +3521,7 @@
         <v>243.2360019597104</v>
       </c>
       <c r="I38" t="n">
-        <v>2.593926074932853</v>
+        <v>2.593926074932824</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>63.30613011111394</v>
+        <v>63.30613011111393</v>
       </c>
       <c r="T38" t="n">
         <v>149.9802813046352</v>
@@ -3569,7 +3569,7 @@
         <v>313.8778556126961</v>
       </c>
       <c r="Y38" t="n">
-        <v>330.3846935902806</v>
+        <v>330.3846935902812</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>91.85809787149991</v>
       </c>
       <c r="I39" t="n">
-        <v>16.75259608246732</v>
+        <v>16.75259608246731</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.90474896133526</v>
+        <v>41.90474896133524</v>
       </c>
       <c r="S40" t="n">
         <v>137.336552178626</v>
@@ -3740,25 +3740,25 @@
         <v>326.8805965977076</v>
       </c>
       <c r="C41" t="n">
-        <v>309.4196467052346</v>
+        <v>309.4196467052345</v>
       </c>
       <c r="D41" t="n">
-        <v>298.82979655491</v>
+        <v>298.8297965549099</v>
       </c>
       <c r="E41" t="n">
         <v>326.0771250064888</v>
       </c>
       <c r="F41" t="n">
-        <v>351.0228006759385</v>
+        <v>351.0228006759384</v>
       </c>
       <c r="G41" t="n">
-        <v>355.5060719596478</v>
+        <v>355.506071959648</v>
       </c>
       <c r="H41" t="n">
-        <v>243.2360019597104</v>
+        <v>243.2360019597103</v>
       </c>
       <c r="I41" t="n">
-        <v>2.593926074932881</v>
+        <v>2.593926074932796</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>63.30613011111397</v>
+        <v>63.306130111115</v>
       </c>
       <c r="T41" t="n">
-        <v>149.9802813046353</v>
+        <v>149.9802813046352</v>
       </c>
       <c r="U41" t="n">
         <v>195.1769342028864</v>
@@ -3803,7 +3803,7 @@
         <v>293.38772365164</v>
       </c>
       <c r="X41" t="n">
-        <v>313.8778556126961</v>
+        <v>313.877855612696</v>
       </c>
       <c r="Y41" t="n">
         <v>330.3846935902806</v>
@@ -3837,7 +3837,7 @@
         <v>91.85809787149991</v>
       </c>
       <c r="I42" t="n">
-        <v>16.75259608246732</v>
+        <v>16.75259608246731</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>123.9787351161644</v>
+        <v>123.9787351161643</v>
       </c>
       <c r="C43" t="n">
-        <v>111.3935760328549</v>
+        <v>111.3935760328548</v>
       </c>
       <c r="D43" t="n">
-        <v>92.76222795243942</v>
+        <v>92.76222795243936</v>
       </c>
       <c r="E43" t="n">
-        <v>90.58071758079623</v>
+        <v>90.58071758079618</v>
       </c>
       <c r="F43" t="n">
-        <v>89.56780295715831</v>
+        <v>89.56780295715825</v>
       </c>
       <c r="G43" t="n">
         <v>110.3688516180989</v>
       </c>
       <c r="H43" t="n">
-        <v>90.64695238943048</v>
+        <v>90.64695238943042</v>
       </c>
       <c r="I43" t="n">
-        <v>46.4021036111815</v>
+        <v>46.40210361118144</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.90474896133529</v>
+        <v>41.90474896133522</v>
       </c>
       <c r="S43" t="n">
-        <v>137.3365521786261</v>
+        <v>137.336552178626</v>
       </c>
       <c r="T43" t="n">
-        <v>164.5343911165464</v>
+        <v>164.5343911165463</v>
       </c>
       <c r="U43" t="n">
-        <v>230.3692997811951</v>
+        <v>230.369299781195</v>
       </c>
       <c r="V43" t="n">
-        <v>196.2843982580551</v>
+        <v>196.284398258055</v>
       </c>
       <c r="W43" t="n">
-        <v>230.6697532708181</v>
+        <v>230.669753270818</v>
       </c>
       <c r="X43" t="n">
         <v>169.8564103232642</v>
       </c>
       <c r="Y43" t="n">
-        <v>162.7314082863219</v>
+        <v>162.7314082863218</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>326.8805965977074</v>
+        <v>326.8805965977076</v>
       </c>
       <c r="C44" t="n">
         <v>309.4196467052346</v>
@@ -3995,7 +3995,7 @@
         <v>243.2360019597104</v>
       </c>
       <c r="I44" t="n">
-        <v>2.593926074932824</v>
+        <v>2.593926074932817</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>63.30613011111392</v>
+        <v>63.30613011111393</v>
       </c>
       <c r="T44" t="n">
         <v>149.9802813046352</v>
@@ -4074,7 +4074,7 @@
         <v>91.85809787149991</v>
       </c>
       <c r="I45" t="n">
-        <v>16.75259608246732</v>
+        <v>16.75259608246731</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>123.9787351161643</v>
       </c>
       <c r="C46" t="n">
-        <v>111.3935760328548</v>
+        <v>111.3935760328549</v>
       </c>
       <c r="D46" t="n">
-        <v>92.76222795243936</v>
+        <v>92.76222795243939</v>
       </c>
       <c r="E46" t="n">
-        <v>90.58071758079618</v>
+        <v>90.5807175807962</v>
       </c>
       <c r="F46" t="n">
-        <v>89.56780295715825</v>
+        <v>89.56780295715828</v>
       </c>
       <c r="G46" t="n">
         <v>110.3688516180989</v>
       </c>
       <c r="H46" t="n">
-        <v>90.64695238943042</v>
+        <v>90.64695238943045</v>
       </c>
       <c r="I46" t="n">
-        <v>46.40210361118145</v>
+        <v>46.40210361118147</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>137.336552178626</v>
       </c>
       <c r="T46" t="n">
-        <v>164.5343911165463</v>
+        <v>164.5343911165464</v>
       </c>
       <c r="U46" t="n">
         <v>230.369299781195</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>347.007417805179</v>
+        <v>731.2178664535168</v>
       </c>
       <c r="C2" t="n">
-        <v>347.007417805179</v>
+        <v>731.2178664535168</v>
       </c>
       <c r="D2" t="n">
-        <v>347.007417805179</v>
+        <v>484.1848034624638</v>
       </c>
       <c r="E2" t="n">
-        <v>288.9859744676041</v>
+        <v>253.9796753218251</v>
       </c>
       <c r="F2" t="n">
-        <v>282.0404737184007</v>
+        <v>247.0341745726216</v>
       </c>
       <c r="G2" t="n">
-        <v>266.5980815799443</v>
+        <v>231.5917824341653</v>
       </c>
       <c r="H2" t="n">
-        <v>19.56501858889139</v>
+        <v>231.5917824341653</v>
       </c>
       <c r="I2" t="n">
         <v>19.56501858889139</v>
@@ -4349,31 +4349,31 @@
         <v>978.2509294445697</v>
       </c>
       <c r="Q2" t="n">
-        <v>969.7703423957685</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="R2" t="n">
-        <v>819.3245181314434</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="S2" t="n">
-        <v>819.3245181314434</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="T2" t="n">
-        <v>594.0404807962319</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="U2" t="n">
-        <v>594.0404807962319</v>
+        <v>731.2178664535168</v>
       </c>
       <c r="V2" t="n">
-        <v>594.0404807962319</v>
+        <v>731.2178664535168</v>
       </c>
       <c r="W2" t="n">
-        <v>594.0404807962319</v>
+        <v>731.2178664535168</v>
       </c>
       <c r="X2" t="n">
-        <v>594.0404807962319</v>
+        <v>731.2178664535168</v>
       </c>
       <c r="Y2" t="n">
-        <v>594.0404807962319</v>
+        <v>731.2178664535168</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.2878619142265</v>
+        <v>546.2693100328491</v>
       </c>
       <c r="C3" t="n">
-        <v>158.2878619142265</v>
+        <v>371.8162807517222</v>
       </c>
       <c r="D3" t="n">
-        <v>158.2878619142265</v>
+        <v>222.8818710904709</v>
       </c>
       <c r="E3" t="n">
-        <v>158.2878619142265</v>
+        <v>222.8818710904709</v>
       </c>
       <c r="F3" t="n">
-        <v>158.2878619142265</v>
+        <v>222.8818710904709</v>
       </c>
       <c r="G3" t="n">
-        <v>19.56501858889139</v>
+        <v>222.8818710904709</v>
       </c>
       <c r="H3" t="n">
-        <v>19.56501858889139</v>
+        <v>109.5898257028427</v>
       </c>
       <c r="I3" t="n">
         <v>19.56501858889139</v>
@@ -4413,19 +4413,19 @@
         <v>146.1858617037014</v>
       </c>
       <c r="L3" t="n">
-        <v>309.8793444333311</v>
+        <v>377.8476075409625</v>
       </c>
       <c r="M3" t="n">
-        <v>309.8793444333311</v>
+        <v>619.9647125784935</v>
       </c>
       <c r="N3" t="n">
-        <v>551.9964494708621</v>
+        <v>723.7203651970593</v>
       </c>
       <c r="O3" t="n">
-        <v>794.1135545083931</v>
+        <v>723.7203651970593</v>
       </c>
       <c r="P3" t="n">
-        <v>978.2509294445697</v>
+        <v>907.8577401332359</v>
       </c>
       <c r="Q3" t="n">
         <v>978.2509294445697</v>
@@ -4437,22 +4437,22 @@
         <v>804.9818487541377</v>
       </c>
       <c r="T3" t="n">
-        <v>769.5068073715702</v>
+        <v>793.3023730239021</v>
       </c>
       <c r="U3" t="n">
-        <v>769.5068073715702</v>
+        <v>793.3023730239021</v>
       </c>
       <c r="V3" t="n">
-        <v>534.3546991398274</v>
+        <v>793.3023730239021</v>
       </c>
       <c r="W3" t="n">
-        <v>534.3546991398274</v>
+        <v>546.2693100328491</v>
       </c>
       <c r="X3" t="n">
-        <v>326.5031989342946</v>
+        <v>546.2693100328491</v>
       </c>
       <c r="Y3" t="n">
-        <v>326.5031989342946</v>
+        <v>546.2693100328491</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.56501858889139</v>
+        <v>156.0916735427112</v>
       </c>
       <c r="C4" t="n">
-        <v>19.56501858889139</v>
+        <v>156.0916735427112</v>
       </c>
       <c r="D4" t="n">
-        <v>19.56501858889139</v>
+        <v>156.0916735427112</v>
       </c>
       <c r="E4" t="n">
-        <v>19.56501858889139</v>
+        <v>156.0916735427112</v>
       </c>
       <c r="F4" t="n">
-        <v>19.56501858889139</v>
+        <v>156.0916735427112</v>
       </c>
       <c r="G4" t="n">
-        <v>19.56501858889139</v>
+        <v>156.0916735427112</v>
       </c>
       <c r="H4" t="n">
         <v>19.56501858889139</v>
@@ -4504,34 +4504,34 @@
         <v>158.0312465334349</v>
       </c>
       <c r="P4" t="n">
-        <v>158.0312465334349</v>
+        <v>156.0916735427112</v>
       </c>
       <c r="Q4" t="n">
-        <v>158.0312465334349</v>
+        <v>156.0916735427112</v>
       </c>
       <c r="R4" t="n">
-        <v>158.0312465334349</v>
+        <v>156.0916735427112</v>
       </c>
       <c r="S4" t="n">
-        <v>158.0312465334349</v>
+        <v>156.0916735427112</v>
       </c>
       <c r="T4" t="n">
-        <v>158.0312465334349</v>
+        <v>156.0916735427112</v>
       </c>
       <c r="U4" t="n">
-        <v>19.56501858889139</v>
+        <v>156.0916735427112</v>
       </c>
       <c r="V4" t="n">
-        <v>19.56501858889139</v>
+        <v>156.0916735427112</v>
       </c>
       <c r="W4" t="n">
-        <v>19.56501858889139</v>
+        <v>156.0916735427112</v>
       </c>
       <c r="X4" t="n">
-        <v>19.56501858889139</v>
+        <v>156.0916735427112</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.56501858889139</v>
+        <v>156.0916735427112</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>296.2257840993605</v>
+        <v>308.2498066576781</v>
       </c>
       <c r="C5" t="n">
-        <v>296.2257840993605</v>
+        <v>308.2498066576781</v>
       </c>
       <c r="D5" t="n">
-        <v>296.2257840993605</v>
+        <v>308.2498066576781</v>
       </c>
       <c r="E5" t="n">
-        <v>43.36872346920688</v>
+        <v>47.50720837107777</v>
       </c>
       <c r="F5" t="n">
-        <v>36.42322272000341</v>
+        <v>40.56170762187429</v>
       </c>
       <c r="G5" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="H5" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="I5" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="J5" t="n">
         <v>21.05936271613333</v>
@@ -4598,19 +4598,19 @@
         <v>828.0278728906062</v>
       </c>
       <c r="U5" t="n">
-        <v>828.0278728906062</v>
+        <v>574.1508510533009</v>
       </c>
       <c r="V5" t="n">
-        <v>828.0278728906062</v>
+        <v>574.1508510533009</v>
       </c>
       <c r="W5" t="n">
-        <v>562.1268284949833</v>
+        <v>574.1508510533009</v>
       </c>
       <c r="X5" t="n">
-        <v>562.1268284949833</v>
+        <v>574.1508510533009</v>
       </c>
       <c r="Y5" t="n">
-        <v>562.1268284949833</v>
+        <v>308.2498066576781</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>444.4076994359793</v>
+        <v>831.1265417985674</v>
       </c>
       <c r="C6" t="n">
-        <v>444.4076994359793</v>
+        <v>656.6735125174404</v>
       </c>
       <c r="D6" t="n">
-        <v>444.4076994359793</v>
+        <v>507.7391028561891</v>
       </c>
       <c r="E6" t="n">
-        <v>444.4076994359793</v>
+        <v>507.7391028561891</v>
       </c>
       <c r="F6" t="n">
         <v>361.204544883074</v>
@@ -4644,52 +4644,52 @@
         <v>21.05936271613333</v>
       </c>
       <c r="J6" t="n">
-        <v>21.05936271613333</v>
+        <v>24.95018035683209</v>
       </c>
       <c r="K6" t="n">
-        <v>154.3302328992135</v>
+        <v>158.2210505399122</v>
       </c>
       <c r="L6" t="n">
-        <v>394.9337607940759</v>
+        <v>158.2210505399122</v>
       </c>
       <c r="M6" t="n">
-        <v>655.5433744062259</v>
+        <v>418.8306641520621</v>
       </c>
       <c r="N6" t="n">
-        <v>792.5550717141743</v>
+        <v>679.4402777642121</v>
       </c>
       <c r="O6" t="n">
-        <v>1052.968135806666</v>
+        <v>939.8533418567041</v>
       </c>
       <c r="P6" t="n">
-        <v>1052.968135806666</v>
+        <v>977.3180709271187</v>
       </c>
       <c r="Q6" t="n">
         <v>1052.968135806666</v>
       </c>
       <c r="R6" t="n">
-        <v>1052.968135806666</v>
+        <v>999.3418788186355</v>
       </c>
       <c r="S6" t="n">
-        <v>880.4795283993074</v>
+        <v>999.3418788186355</v>
       </c>
       <c r="T6" t="n">
-        <v>880.4795283993074</v>
+        <v>999.3418788186355</v>
       </c>
       <c r="U6" t="n">
-        <v>652.2591996415122</v>
+        <v>999.3418788186355</v>
       </c>
       <c r="V6" t="n">
-        <v>652.2591996415122</v>
+        <v>999.3418788186355</v>
       </c>
       <c r="W6" t="n">
-        <v>652.2591996415122</v>
+        <v>999.3418788186355</v>
       </c>
       <c r="X6" t="n">
-        <v>444.4076994359793</v>
+        <v>999.3418788186355</v>
       </c>
       <c r="Y6" t="n">
-        <v>444.4076994359793</v>
+        <v>999.3418788186355</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.68360465423048</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C7" t="n">
-        <v>38.68360465423048</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D7" t="n">
-        <v>38.68360465423048</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E7" t="n">
-        <v>38.68360465423048</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F7" t="n">
-        <v>38.68360465423048</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G7" t="n">
-        <v>38.68360465423048</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H7" t="n">
-        <v>38.68360465423048</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I7" t="n">
-        <v>38.68360465423048</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J7" t="n">
-        <v>38.68360465423048</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K7" t="n">
         <v>21.05936271613333</v>
@@ -4747,28 +4747,28 @@
         <v>182.5089274706534</v>
       </c>
       <c r="R7" t="n">
-        <v>38.68360465423048</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="S7" t="n">
-        <v>38.68360465423048</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="T7" t="n">
-        <v>38.68360465423048</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="U7" t="n">
-        <v>38.68360465423048</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="V7" t="n">
-        <v>38.68360465423048</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="W7" t="n">
-        <v>38.68360465423048</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="X7" t="n">
-        <v>38.68360465423048</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.68360465423048</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>529.5587134138201</v>
+        <v>323.2990948046596</v>
       </c>
       <c r="C8" t="n">
-        <v>529.5587134138201</v>
+        <v>44.35312136793684</v>
       </c>
       <c r="D8" t="n">
-        <v>529.5587134138201</v>
+        <v>44.35312136793684</v>
       </c>
       <c r="E8" t="n">
-        <v>529.5587134138201</v>
+        <v>44.35312136793684</v>
       </c>
       <c r="F8" t="n">
-        <v>522.6132126646166</v>
+        <v>37.40762061873336</v>
       </c>
       <c r="G8" t="n">
-        <v>301.0384945329112</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H8" t="n">
         <v>22.09252109618844</v>
@@ -4829,25 +4829,25 @@
         <v>962.1762753293418</v>
       </c>
       <c r="S8" t="n">
-        <v>754.2855273228794</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="T8" t="n">
-        <v>529.5587134138201</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="U8" t="n">
-        <v>529.5587134138201</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="V8" t="n">
-        <v>529.5587134138201</v>
+        <v>683.2303018926191</v>
       </c>
       <c r="W8" t="n">
-        <v>529.5587134138201</v>
+        <v>404.2843284558963</v>
       </c>
       <c r="X8" t="n">
-        <v>529.5587134138201</v>
+        <v>404.2843284558963</v>
       </c>
       <c r="Y8" t="n">
-        <v>529.5587134138201</v>
+        <v>323.2990948046596</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>134.7267908976475</v>
+        <v>242.3145727610137</v>
       </c>
       <c r="C9" t="n">
-        <v>134.7267908976475</v>
+        <v>67.86154347988671</v>
       </c>
       <c r="D9" t="n">
-        <v>134.7267908976475</v>
+        <v>67.86154347988671</v>
       </c>
       <c r="E9" t="n">
-        <v>134.7267908976475</v>
+        <v>67.86154347988671</v>
       </c>
       <c r="F9" t="n">
-        <v>134.7267908976475</v>
+        <v>67.86154347988671</v>
       </c>
       <c r="G9" t="n">
-        <v>134.7267908976475</v>
+        <v>67.86154347988671</v>
       </c>
       <c r="H9" t="n">
         <v>22.09252109618844</v>
@@ -4887,13 +4887,13 @@
         <v>165.799003153448</v>
       </c>
       <c r="L9" t="n">
-        <v>411.954469746149</v>
+        <v>288.9361218459458</v>
       </c>
       <c r="M9" t="n">
-        <v>555.4329354292296</v>
+        <v>288.9361218459458</v>
       </c>
       <c r="N9" t="n">
-        <v>828.8278839945615</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="O9" t="n">
         <v>828.8278839945615</v>
@@ -4911,22 +4911,22 @@
         <v>932.6220420606005</v>
       </c>
       <c r="T9" t="n">
-        <v>730.7421420887098</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="U9" t="n">
-        <v>502.5235297228575</v>
+        <v>704.4034296947482</v>
       </c>
       <c r="V9" t="n">
-        <v>502.5235297228575</v>
+        <v>704.4034296947482</v>
       </c>
       <c r="W9" t="n">
-        <v>248.2861729946558</v>
+        <v>450.1660729665466</v>
       </c>
       <c r="X9" t="n">
-        <v>248.2861729946558</v>
+        <v>242.3145727610137</v>
       </c>
       <c r="Y9" t="n">
-        <v>248.2861729946558</v>
+        <v>242.3145727610137</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>117.3019767171697</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="C10" t="n">
-        <v>117.3019767171697</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="D10" t="n">
-        <v>117.3019767171697</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="E10" t="n">
-        <v>117.3019767171697</v>
+        <v>51.07962342074273</v>
       </c>
       <c r="F10" t="n">
-        <v>117.3019767171697</v>
+        <v>51.07962342074273</v>
       </c>
       <c r="G10" t="n">
         <v>22.09252109618844</v>
@@ -4981,31 +4981,31 @@
         <v>198.9927170031359</v>
       </c>
       <c r="Q10" t="n">
-        <v>117.3019767171697</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R10" t="n">
-        <v>117.3019767171697</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S10" t="n">
-        <v>117.3019767171697</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T10" t="n">
-        <v>117.3019767171697</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U10" t="n">
-        <v>117.3019767171697</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V10" t="n">
-        <v>117.3019767171697</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W10" t="n">
-        <v>117.3019767171697</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X10" t="n">
-        <v>117.3019767171697</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y10" t="n">
-        <v>117.3019767171697</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2429.34256304433</v>
+        <v>2379.180857978551</v>
       </c>
       <c r="C11" t="n">
-        <v>2060.380046103918</v>
+        <v>2010.218341038139</v>
       </c>
       <c r="D11" t="n">
-        <v>1702.114347497168</v>
+        <v>1651.952642431389</v>
       </c>
       <c r="E11" t="n">
-        <v>1316.326094898923</v>
+        <v>1266.164389833145</v>
       </c>
       <c r="F11" t="n">
-        <v>905.3401901093159</v>
+        <v>855.1784850435372</v>
       </c>
       <c r="G11" t="n">
-        <v>489.1746054278921</v>
+        <v>439.0129003621134</v>
       </c>
       <c r="H11" t="n">
         <v>180.3959410679576</v>
@@ -5039,25 +5039,25 @@
         <v>96.25597347760834</v>
       </c>
       <c r="J11" t="n">
-        <v>361.6086176328076</v>
+        <v>361.6086176328075</v>
       </c>
       <c r="K11" t="n">
-        <v>880.0482498921742</v>
+        <v>880.0482498921743</v>
       </c>
       <c r="L11" t="n">
         <v>1575.495084820344</v>
       </c>
       <c r="M11" t="n">
-        <v>2365.920232410332</v>
+        <v>2365.920232410333</v>
       </c>
       <c r="N11" t="n">
-        <v>3154.503287706562</v>
+        <v>3154.503287706563</v>
       </c>
       <c r="O11" t="n">
-        <v>3853.952267409396</v>
+        <v>3853.952267409397</v>
       </c>
       <c r="P11" t="n">
-        <v>4413.241406354164</v>
+        <v>4413.241406354165</v>
       </c>
       <c r="Q11" t="n">
         <v>4756.022497771874</v>
@@ -5066,25 +5066,25 @@
         <v>4812.798673880417</v>
       </c>
       <c r="S11" t="n">
-        <v>4727.759907452488</v>
+        <v>4677.598202386709</v>
       </c>
       <c r="T11" t="n">
-        <v>4516.996963447305</v>
+        <v>4466.835258381527</v>
       </c>
       <c r="U11" t="n">
-        <v>4263.379035959028</v>
+        <v>4213.21733089325</v>
       </c>
       <c r="V11" t="n">
-        <v>3932.316148615458</v>
+        <v>3882.154443549679</v>
       </c>
       <c r="W11" t="n">
-        <v>3579.547493345343</v>
+        <v>3529.385788279565</v>
       </c>
       <c r="X11" t="n">
-        <v>3206.081735084264</v>
+        <v>3155.920030018485</v>
       </c>
       <c r="Y11" t="n">
-        <v>2815.942403108452</v>
+        <v>2765.780698042673</v>
       </c>
     </row>
     <row r="12">
@@ -5121,19 +5121,19 @@
         <v>135.7746858188386</v>
       </c>
       <c r="K12" t="n">
-        <v>490.0809333286847</v>
+        <v>281.4732843828177</v>
       </c>
       <c r="L12" t="n">
-        <v>732.3132205769423</v>
+        <v>523.7055716310754</v>
       </c>
       <c r="M12" t="n">
-        <v>1034.343742609058</v>
+        <v>1286.784106775691</v>
       </c>
       <c r="N12" t="n">
-        <v>1358.776758755245</v>
+        <v>2063.978595792745</v>
       </c>
       <c r="O12" t="n">
-        <v>2023.273486279786</v>
+        <v>2338.551627233324</v>
       </c>
       <c r="P12" t="n">
         <v>2539.587625507161</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>675.010637654214</v>
+        <v>581.2984291292414</v>
       </c>
       <c r="C13" t="n">
-        <v>675.010637654214</v>
+        <v>412.3622462013345</v>
       </c>
       <c r="D13" t="n">
-        <v>675.010637654214</v>
+        <v>412.3622462013345</v>
       </c>
       <c r="E13" t="n">
-        <v>527.0975440718208</v>
+        <v>264.4491526189414</v>
       </c>
       <c r="F13" t="n">
-        <v>527.0975440718208</v>
+        <v>264.4491526189414</v>
       </c>
       <c r="G13" t="n">
-        <v>358.9043649304878</v>
+        <v>96.25597347760834</v>
       </c>
       <c r="H13" t="n">
-        <v>208.3275874147191</v>
+        <v>96.25597347760834</v>
       </c>
       <c r="I13" t="n">
         <v>96.25597347760834</v>
@@ -5203,10 +5203,10 @@
         <v>255.553246350306</v>
       </c>
       <c r="L13" t="n">
-        <v>500.6632067668417</v>
+        <v>500.6632067668418</v>
       </c>
       <c r="M13" t="n">
-        <v>769.486416168207</v>
+        <v>769.4864161682071</v>
       </c>
       <c r="N13" t="n">
         <v>1037.352226921278</v>
@@ -5221,28 +5221,28 @@
         <v>1480.604209378427</v>
       </c>
       <c r="R13" t="n">
-        <v>1368.72616955056</v>
+        <v>1480.604209378427</v>
       </c>
       <c r="S13" t="n">
-        <v>1368.72616955056</v>
+        <v>1280.372992448238</v>
       </c>
       <c r="T13" t="n">
-        <v>1368.72616955056</v>
+        <v>1280.372992448238</v>
       </c>
       <c r="U13" t="n">
-        <v>1079.596556720783</v>
+        <v>991.2433796184603</v>
       </c>
       <c r="V13" t="n">
-        <v>1079.596556720783</v>
+        <v>991.2433796184603</v>
       </c>
       <c r="W13" t="n">
-        <v>1079.596556720783</v>
+        <v>701.8262095814996</v>
       </c>
       <c r="X13" t="n">
-        <v>851.6070058227654</v>
+        <v>701.8262095814996</v>
       </c>
       <c r="Y13" t="n">
-        <v>851.6070058227654</v>
+        <v>701.8262095814996</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2396.920705192027</v>
+        <v>2396.920705192026</v>
       </c>
       <c r="C14" t="n">
         <v>2027.958188251615</v>
       </c>
       <c r="D14" t="n">
-        <v>1669.692489644865</v>
+        <v>1669.692489644864</v>
       </c>
       <c r="E14" t="n">
         <v>1283.90423704662</v>
       </c>
       <c r="F14" t="n">
-        <v>872.9183322570126</v>
+        <v>872.9183322570123</v>
       </c>
       <c r="G14" t="n">
-        <v>457.4038706151732</v>
+        <v>457.4038706151731</v>
       </c>
       <c r="H14" t="n">
         <v>155.2935200843819</v>
@@ -5285,16 +5285,16 @@
         <v>1644.137352451265</v>
       </c>
       <c r="M14" t="n">
-        <v>2546.618811448022</v>
+        <v>2376.729533361276</v>
       </c>
       <c r="N14" t="n">
-        <v>3056.400473919546</v>
+        <v>2846.20863316624</v>
       </c>
       <c r="O14" t="n">
-        <v>3863.373193208135</v>
+        <v>3653.18135245483</v>
       </c>
       <c r="P14" t="n">
-        <v>4514.431356239711</v>
+        <v>4304.239515486405</v>
       </c>
       <c r="Q14" t="n">
         <v>4715.935322178526</v>
@@ -5303,13 +5303,13 @@
         <v>4812.798673880417</v>
       </c>
       <c r="S14" t="n">
-        <v>4692.435668651237</v>
+        <v>4692.435668651238</v>
       </c>
       <c r="T14" t="n">
-        <v>4484.523015751835</v>
+        <v>4484.523015751836</v>
       </c>
       <c r="U14" t="n">
-        <v>4230.957178106725</v>
+        <v>4230.957178106724</v>
       </c>
       <c r="V14" t="n">
         <v>3899.894290763154</v>
@@ -5321,7 +5321,7 @@
         <v>3173.65987723196</v>
       </c>
       <c r="Y14" t="n">
-        <v>2783.520545256149</v>
+        <v>2783.520545256148</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>648.3353552892904</v>
       </c>
       <c r="E15" t="n">
-        <v>489.097900283835</v>
+        <v>489.0979002838349</v>
       </c>
       <c r="F15" t="n">
         <v>342.5633423107199</v>
@@ -5358,22 +5358,22 @@
         <v>168.0341044890102</v>
       </c>
       <c r="K15" t="n">
-        <v>630.6897724073732</v>
+        <v>630.6897724073733</v>
       </c>
       <c r="L15" t="n">
-        <v>947.0598676156533</v>
+        <v>947.0598676156535</v>
       </c>
       <c r="M15" t="n">
-        <v>1335.605714682624</v>
+        <v>1335.605714682625</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.843859082954</v>
+        <v>1748.843859082955</v>
       </c>
       <c r="O15" t="n">
-        <v>2206.15835409341</v>
+        <v>2104.656233386019</v>
       </c>
       <c r="P15" t="n">
-        <v>2472.396087201374</v>
+        <v>2370.893966493983</v>
       </c>
       <c r="Q15" t="n">
         <v>2600.449764698534</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>391.0590145579118</v>
+        <v>244.2359709071067</v>
       </c>
       <c r="C16" t="n">
-        <v>391.0590145579118</v>
+        <v>244.2359709071067</v>
       </c>
       <c r="D16" t="n">
-        <v>391.0590145579118</v>
+        <v>244.2359709071067</v>
       </c>
       <c r="E16" t="n">
-        <v>243.1459209755187</v>
+        <v>244.2359709071067</v>
       </c>
       <c r="F16" t="n">
-        <v>96.25597347760834</v>
+        <v>244.2359709071067</v>
       </c>
       <c r="G16" t="n">
-        <v>96.25597347760834</v>
+        <v>244.2359709071067</v>
       </c>
       <c r="H16" t="n">
         <v>96.25597347760834</v>
@@ -5467,19 +5467,19 @@
         <v>1247.890698799574</v>
       </c>
       <c r="U16" t="n">
-        <v>958.7770171359703</v>
+        <v>958.7770171359705</v>
       </c>
       <c r="V16" t="n">
-        <v>862.1246494251122</v>
+        <v>704.0925289300836</v>
       </c>
       <c r="W16" t="n">
-        <v>572.7074793881516</v>
+        <v>425.8844357373465</v>
       </c>
       <c r="X16" t="n">
-        <v>572.7074793881516</v>
+        <v>425.8844357373465</v>
       </c>
       <c r="Y16" t="n">
-        <v>572.7074793881516</v>
+        <v>425.8844357373465</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5492,19 @@
         <v>2396.920705192028</v>
       </c>
       <c r="C17" t="n">
-        <v>2027.958188251615</v>
+        <v>2027.958188251616</v>
       </c>
       <c r="D17" t="n">
-        <v>1669.692489644865</v>
+        <v>1669.692489644866</v>
       </c>
       <c r="E17" t="n">
-        <v>1283.90423704662</v>
+        <v>1283.904237046622</v>
       </c>
       <c r="F17" t="n">
-        <v>872.9183322570126</v>
+        <v>872.9183322570141</v>
       </c>
       <c r="G17" t="n">
-        <v>457.4038706151732</v>
+        <v>457.4038706151731</v>
       </c>
       <c r="H17" t="n">
         <v>155.2935200843819</v>
@@ -5513,25 +5513,25 @@
         <v>96.25597347760834</v>
       </c>
       <c r="J17" t="n">
-        <v>409.1028699302279</v>
+        <v>415.7721329575194</v>
       </c>
       <c r="K17" t="n">
-        <v>1008.719571218426</v>
+        <v>888.2857478919246</v>
       </c>
       <c r="L17" t="n">
-        <v>1804.873738444326</v>
+        <v>1684.439915117824</v>
       </c>
       <c r="M17" t="n">
-        <v>2262.33679928318</v>
+        <v>2586.921374114582</v>
       </c>
       <c r="N17" t="n">
-        <v>3164.789354256008</v>
+        <v>3056.400473919546</v>
       </c>
       <c r="O17" t="n">
-        <v>3971.762073544598</v>
+        <v>3863.373193208135</v>
       </c>
       <c r="P17" t="n">
-        <v>4304.239515486405</v>
+        <v>4514.431356239711</v>
       </c>
       <c r="Q17" t="n">
         <v>4715.935322178526</v>
@@ -5577,7 +5577,7 @@
         <v>648.3353552892904</v>
       </c>
       <c r="E18" t="n">
-        <v>489.097900283835</v>
+        <v>489.0979002838349</v>
       </c>
       <c r="F18" t="n">
         <v>342.5633423107199</v>
@@ -5595,22 +5595,22 @@
         <v>168.0341044890102</v>
       </c>
       <c r="K18" t="n">
-        <v>368.8691877649204</v>
+        <v>630.6897724073733</v>
       </c>
       <c r="L18" t="n">
-        <v>685.2392829732005</v>
+        <v>947.0598676156535</v>
       </c>
       <c r="M18" t="n">
-        <v>1437.107835390016</v>
+        <v>1335.605714682625</v>
       </c>
       <c r="N18" t="n">
-        <v>1850.345979790346</v>
+        <v>1748.843859082955</v>
       </c>
       <c r="O18" t="n">
-        <v>2206.15835409341</v>
+        <v>2104.656233386019</v>
       </c>
       <c r="P18" t="n">
-        <v>2472.396087201374</v>
+        <v>2370.893966493983</v>
       </c>
       <c r="Q18" t="n">
         <v>2600.449764698534</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>526.9135519128903</v>
+        <v>878.0798485067465</v>
       </c>
       <c r="C19" t="n">
-        <v>526.9135519128903</v>
+        <v>709.1436655788397</v>
       </c>
       <c r="D19" t="n">
-        <v>526.9135519128903</v>
+        <v>559.0270261665039</v>
       </c>
       <c r="E19" t="n">
-        <v>526.9135519128903</v>
+        <v>559.0270261665039</v>
       </c>
       <c r="F19" t="n">
-        <v>380.0236044149799</v>
+        <v>412.1370786685935</v>
       </c>
       <c r="G19" t="n">
-        <v>212.1224966534931</v>
+        <v>244.2359709071067</v>
       </c>
       <c r="H19" t="n">
         <v>96.25597347760834</v>
@@ -5698,25 +5698,25 @@
         <v>1764.391130571116</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.391130571116</v>
+        <v>1569.24992123334</v>
       </c>
       <c r="T19" t="n">
-        <v>1541.777356649581</v>
+        <v>1346.636147311805</v>
       </c>
       <c r="U19" t="n">
-        <v>1252.663674985977</v>
+        <v>1346.636147311805</v>
       </c>
       <c r="V19" t="n">
-        <v>997.9791867800906</v>
+        <v>1346.636147311805</v>
       </c>
       <c r="W19" t="n">
-        <v>708.56201674313</v>
+        <v>1106.069399404764</v>
       </c>
       <c r="X19" t="n">
-        <v>708.56201674313</v>
+        <v>878.0798485067465</v>
       </c>
       <c r="Y19" t="n">
-        <v>708.56201674313</v>
+        <v>878.0798485067465</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2396.920705192027</v>
+        <v>2396.920705192028</v>
       </c>
       <c r="C20" t="n">
-        <v>2027.958188251615</v>
+        <v>2027.958188251616</v>
       </c>
       <c r="D20" t="n">
         <v>1669.692489644865</v>
@@ -5738,10 +5738,10 @@
         <v>1283.90423704662</v>
       </c>
       <c r="F20" t="n">
-        <v>872.9183322570126</v>
+        <v>872.9183322570125</v>
       </c>
       <c r="G20" t="n">
-        <v>457.4038706151732</v>
+        <v>457.4038706151731</v>
       </c>
       <c r="H20" t="n">
         <v>155.2935200843819</v>
@@ -5750,28 +5750,28 @@
         <v>96.25597347760834</v>
       </c>
       <c r="J20" t="n">
-        <v>415.7721329575193</v>
+        <v>415.7721329575194</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4848758002647</v>
+        <v>1015.388834245718</v>
       </c>
       <c r="L20" t="n">
-        <v>1490.639043026164</v>
+        <v>1811.543001471618</v>
       </c>
       <c r="M20" t="n">
-        <v>2393.120502022922</v>
+        <v>2269.006062310471</v>
       </c>
       <c r="N20" t="n">
-        <v>2862.599601827886</v>
+        <v>3171.4586172833</v>
       </c>
       <c r="O20" t="n">
-        <v>3669.572321116475</v>
+        <v>3978.431336571889</v>
       </c>
       <c r="P20" t="n">
-        <v>4320.630484148051</v>
+        <v>4310.908778513697</v>
       </c>
       <c r="Q20" t="n">
-        <v>4715.935322178526</v>
+        <v>4722.604585205818</v>
       </c>
       <c r="R20" t="n">
         <v>4812.798673880417</v>
@@ -5792,7 +5792,7 @@
         <v>3547.125635493041</v>
       </c>
       <c r="X20" t="n">
-        <v>3173.65987723196</v>
+        <v>3173.659877231961</v>
       </c>
       <c r="Y20" t="n">
         <v>2783.520545256149</v>
@@ -5814,7 +5814,7 @@
         <v>648.3353552892904</v>
       </c>
       <c r="E21" t="n">
-        <v>489.097900283835</v>
+        <v>489.0979002838349</v>
       </c>
       <c r="F21" t="n">
         <v>342.5633423107199</v>
@@ -5835,16 +5835,16 @@
         <v>368.8691877649204</v>
       </c>
       <c r="L21" t="n">
-        <v>733.2838473695067</v>
+        <v>685.2392829732005</v>
       </c>
       <c r="M21" t="n">
-        <v>1121.829694436478</v>
+        <v>1073.785130040172</v>
       </c>
       <c r="N21" t="n">
-        <v>1535.067838836808</v>
+        <v>1487.023274440502</v>
       </c>
       <c r="O21" t="n">
-        <v>1890.880213139872</v>
+        <v>2206.15835409341</v>
       </c>
       <c r="P21" t="n">
         <v>2472.396087201374</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>771.5073422867209</v>
+        <v>583.2099035793377</v>
       </c>
       <c r="C22" t="n">
-        <v>665.4750452206466</v>
+        <v>414.2737206514308</v>
       </c>
       <c r="D22" t="n">
-        <v>515.3584058083109</v>
+        <v>264.1570812390951</v>
       </c>
       <c r="E22" t="n">
-        <v>367.4453122259177</v>
+        <v>264.1570812390951</v>
       </c>
       <c r="F22" t="n">
-        <v>367.4453122259177</v>
+        <v>264.1570812390951</v>
       </c>
       <c r="G22" t="n">
-        <v>199.544204464431</v>
+        <v>96.25597347760834</v>
       </c>
       <c r="H22" t="n">
-        <v>199.544204464431</v>
+        <v>96.25597347760834</v>
       </c>
       <c r="I22" t="n">
         <v>96.25597347760834</v>
@@ -5932,28 +5932,28 @@
         <v>1764.391130571116</v>
       </c>
       <c r="R22" t="n">
-        <v>1764.391130571116</v>
+        <v>1665.645682058886</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.391130571116</v>
+        <v>1470.504472721109</v>
       </c>
       <c r="T22" t="n">
-        <v>1764.391130571116</v>
+        <v>1470.504472721109</v>
       </c>
       <c r="U22" t="n">
-        <v>1764.391130571116</v>
+        <v>1286.676521826772</v>
       </c>
       <c r="V22" t="n">
-        <v>1509.706642365229</v>
+        <v>1031.992033620885</v>
       </c>
       <c r="W22" t="n">
-        <v>1220.289472328268</v>
+        <v>1031.992033620885</v>
       </c>
       <c r="X22" t="n">
-        <v>992.2999214302511</v>
+        <v>804.0024827228679</v>
       </c>
       <c r="Y22" t="n">
-        <v>771.5073422867209</v>
+        <v>583.2099035793377</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5963,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2396.920705192027</v>
+        <v>2396.920705192026</v>
       </c>
       <c r="C23" t="n">
-        <v>2027.958188251615</v>
+        <v>2027.958188251614</v>
       </c>
       <c r="D23" t="n">
-        <v>1669.692489644865</v>
+        <v>1669.692489644864</v>
       </c>
       <c r="E23" t="n">
-        <v>1283.904237046621</v>
+        <v>1283.90423704662</v>
       </c>
       <c r="F23" t="n">
-        <v>872.9183322570132</v>
+        <v>872.9183322570129</v>
       </c>
       <c r="G23" t="n">
-        <v>457.4038706151736</v>
+        <v>457.4038706151731</v>
       </c>
       <c r="H23" t="n">
-        <v>155.2935200843822</v>
+        <v>155.2935200843819</v>
       </c>
       <c r="I23" t="n">
         <v>96.25597347760834</v>
       </c>
       <c r="J23" t="n">
-        <v>415.7721329575193</v>
+        <v>288.6690466037261</v>
       </c>
       <c r="K23" t="n">
-        <v>1015.388834245718</v>
+        <v>888.2857478919246</v>
       </c>
       <c r="L23" t="n">
-        <v>1398.058399066671</v>
+        <v>1684.439915117824</v>
       </c>
       <c r="M23" t="n">
-        <v>2153.947918946717</v>
+        <v>2586.921374114582</v>
       </c>
       <c r="N23" t="n">
         <v>3056.400473919546</v>
@@ -6020,19 +6020,19 @@
         <v>4484.523015751835</v>
       </c>
       <c r="U23" t="n">
-        <v>4230.957178106725</v>
+        <v>4230.957178106724</v>
       </c>
       <c r="V23" t="n">
         <v>3899.894290763154</v>
       </c>
       <c r="W23" t="n">
-        <v>3547.12563549304</v>
+        <v>3547.125635493039</v>
       </c>
       <c r="X23" t="n">
-        <v>3173.65987723196</v>
+        <v>3173.659877231959</v>
       </c>
       <c r="Y23" t="n">
-        <v>2783.520545256149</v>
+        <v>2783.520545256148</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>648.3353552892904</v>
       </c>
       <c r="E24" t="n">
-        <v>489.097900283835</v>
+        <v>489.0979002838349</v>
       </c>
       <c r="F24" t="n">
         <v>342.5633423107199</v>
@@ -6069,16 +6069,16 @@
         <v>168.0341044890102</v>
       </c>
       <c r="K24" t="n">
-        <v>368.8691877649204</v>
+        <v>630.6897724073733</v>
       </c>
       <c r="L24" t="n">
-        <v>685.2392829732005</v>
+        <v>947.0598676156535</v>
       </c>
       <c r="M24" t="n">
-        <v>1073.785130040172</v>
+        <v>1335.605714682625</v>
       </c>
       <c r="N24" t="n">
-        <v>1487.023274440502</v>
+        <v>1748.843859082955</v>
       </c>
       <c r="O24" t="n">
         <v>2206.15835409341</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>813.378940541452</v>
+        <v>562.2537180809293</v>
       </c>
       <c r="C25" t="n">
-        <v>644.4427576135452</v>
+        <v>562.2537180809293</v>
       </c>
       <c r="D25" t="n">
-        <v>644.4427576135452</v>
+        <v>412.1370786685935</v>
       </c>
       <c r="E25" t="n">
-        <v>496.529664031152</v>
+        <v>412.1370786685935</v>
       </c>
       <c r="F25" t="n">
-        <v>349.6397165332417</v>
+        <v>412.1370786685935</v>
       </c>
       <c r="G25" t="n">
         <v>244.2359709071067</v>
@@ -6172,25 +6172,25 @@
         <v>1665.645682058886</v>
       </c>
       <c r="S25" t="n">
-        <v>1470.504472721109</v>
+        <v>1591.387894601046</v>
       </c>
       <c r="T25" t="n">
-        <v>1470.504472721109</v>
+        <v>1368.774120679511</v>
       </c>
       <c r="U25" t="n">
-        <v>1470.504472721109</v>
+        <v>1079.660439015907</v>
       </c>
       <c r="V25" t="n">
-        <v>1215.819984515222</v>
+        <v>1079.660439015907</v>
       </c>
       <c r="W25" t="n">
-        <v>1215.819984515222</v>
+        <v>790.2432689789466</v>
       </c>
       <c r="X25" t="n">
-        <v>1215.819984515222</v>
+        <v>562.2537180809293</v>
       </c>
       <c r="Y25" t="n">
-        <v>995.0274053716918</v>
+        <v>562.2537180809293</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6215,7 @@
         <v>872.9183322570125</v>
       </c>
       <c r="G26" t="n">
-        <v>457.4038706151732</v>
+        <v>457.4038706151731</v>
       </c>
       <c r="H26" t="n">
         <v>155.2935200843818</v>
@@ -6224,28 +6224,28 @@
         <v>96.25597347760834</v>
       </c>
       <c r="J26" t="n">
-        <v>415.7721329575193</v>
+        <v>415.7721329575194</v>
       </c>
       <c r="K26" t="n">
         <v>1015.388834245718</v>
       </c>
       <c r="L26" t="n">
-        <v>1398.058399066671</v>
+        <v>1539.307330038771</v>
       </c>
       <c r="M26" t="n">
-        <v>2300.539858063429</v>
+        <v>2441.788789035528</v>
       </c>
       <c r="N26" t="n">
-        <v>3202.992413036257</v>
+        <v>2911.267888840493</v>
       </c>
       <c r="O26" t="n">
-        <v>4009.965132324847</v>
+        <v>3718.240608129082</v>
       </c>
       <c r="P26" t="n">
-        <v>4342.442574266654</v>
+        <v>4369.298771160657</v>
       </c>
       <c r="Q26" t="n">
-        <v>4754.138380958775</v>
+        <v>4780.994577852778</v>
       </c>
       <c r="R26" t="n">
         <v>4812.798673880417</v>
@@ -6288,7 +6288,7 @@
         <v>648.3353552892904</v>
       </c>
       <c r="E27" t="n">
-        <v>489.097900283835</v>
+        <v>489.0979002838349</v>
       </c>
       <c r="F27" t="n">
         <v>342.5633423107199</v>
@@ -6306,13 +6306,13 @@
         <v>168.0341044890102</v>
       </c>
       <c r="K27" t="n">
-        <v>368.8691877649204</v>
+        <v>630.6897724073733</v>
       </c>
       <c r="L27" t="n">
-        <v>685.2392829732005</v>
+        <v>1018.028372203433</v>
       </c>
       <c r="M27" t="n">
-        <v>1073.785130040172</v>
+        <v>1406.574219270405</v>
       </c>
       <c r="N27" t="n">
         <v>1819.812363670735</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>689.155651399746</v>
+        <v>349.6608438767668</v>
       </c>
       <c r="C28" t="n">
-        <v>689.155651399746</v>
+        <v>349.6608438767668</v>
       </c>
       <c r="D28" t="n">
-        <v>539.0390119874103</v>
+        <v>199.544204464431</v>
       </c>
       <c r="E28" t="n">
-        <v>391.1259184050171</v>
+        <v>199.544204464431</v>
       </c>
       <c r="F28" t="n">
-        <v>244.2359709071067</v>
+        <v>199.544204464431</v>
       </c>
       <c r="G28" t="n">
-        <v>244.2359709071067</v>
+        <v>199.544204464431</v>
       </c>
       <c r="H28" t="n">
-        <v>96.25597347760834</v>
+        <v>199.544204464431</v>
       </c>
       <c r="I28" t="n">
         <v>96.25597347760834</v>
@@ -6406,28 +6406,28 @@
         <v>1764.391130571116</v>
       </c>
       <c r="R28" t="n">
-        <v>1665.645682058886</v>
+        <v>1764.391130571116</v>
       </c>
       <c r="S28" t="n">
-        <v>1470.504472721109</v>
+        <v>1764.391130571116</v>
       </c>
       <c r="T28" t="n">
-        <v>1470.504472721109</v>
+        <v>1541.777356649582</v>
       </c>
       <c r="U28" t="n">
-        <v>1454.049888786124</v>
+        <v>1252.663674985978</v>
       </c>
       <c r="V28" t="n">
-        <v>1199.365400580237</v>
+        <v>1252.663674985978</v>
       </c>
       <c r="W28" t="n">
-        <v>909.9482305432762</v>
+        <v>980.091438748554</v>
       </c>
       <c r="X28" t="n">
-        <v>909.9482305432762</v>
+        <v>752.1018878505366</v>
       </c>
       <c r="Y28" t="n">
-        <v>689.155651399746</v>
+        <v>531.3093087070065</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1283.90423704662</v>
       </c>
       <c r="F29" t="n">
-        <v>872.9183322570129</v>
+        <v>872.9183322570125</v>
       </c>
       <c r="G29" t="n">
         <v>457.4038706151732</v>
@@ -6473,16 +6473,16 @@
         <v>2546.618811448022</v>
       </c>
       <c r="N29" t="n">
-        <v>3016.097911252986</v>
+        <v>3449.071366420851</v>
       </c>
       <c r="O29" t="n">
-        <v>3718.240608129082</v>
+        <v>3971.762073544598</v>
       </c>
       <c r="P29" t="n">
-        <v>4369.298771160657</v>
+        <v>4304.239515486405</v>
       </c>
       <c r="Q29" t="n">
-        <v>4780.994577852778</v>
+        <v>4715.935322178526</v>
       </c>
       <c r="R29" t="n">
         <v>4812.798673880417</v>
@@ -6491,7 +6491,7 @@
         <v>4692.435668651237</v>
       </c>
       <c r="T29" t="n">
-        <v>4484.523015751835</v>
+        <v>4484.523015751834</v>
       </c>
       <c r="U29" t="n">
         <v>4230.957178106724</v>
@@ -6525,7 +6525,7 @@
         <v>648.3353552892904</v>
       </c>
       <c r="E30" t="n">
-        <v>489.097900283835</v>
+        <v>489.0979002838349</v>
       </c>
       <c r="F30" t="n">
         <v>342.5633423107199</v>
@@ -6543,25 +6543,25 @@
         <v>168.0341044890102</v>
       </c>
       <c r="K30" t="n">
-        <v>368.8691877649204</v>
+        <v>630.6897724073733</v>
       </c>
       <c r="L30" t="n">
-        <v>1018.028372203433</v>
+        <v>947.0598676156535</v>
       </c>
       <c r="M30" t="n">
-        <v>1406.574219270405</v>
+        <v>1335.605714682625</v>
       </c>
       <c r="N30" t="n">
-        <v>1819.812363670735</v>
+        <v>1748.843859082955</v>
       </c>
       <c r="O30" t="n">
-        <v>2175.624737973799</v>
+        <v>2104.656233386019</v>
       </c>
       <c r="P30" t="n">
-        <v>2441.862471081763</v>
+        <v>2370.893966493983</v>
       </c>
       <c r="Q30" t="n">
-        <v>2569.916148578923</v>
+        <v>2600.449764698534</v>
       </c>
       <c r="R30" t="n">
         <v>2600.449764698534</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>727.8963052473055</v>
+        <v>264.1570812390951</v>
       </c>
       <c r="C31" t="n">
-        <v>558.9601223193986</v>
+        <v>264.1570812390951</v>
       </c>
       <c r="D31" t="n">
-        <v>558.9601223193986</v>
+        <v>264.1570812390951</v>
       </c>
       <c r="E31" t="n">
-        <v>411.0470287370055</v>
+        <v>264.1570812390951</v>
       </c>
       <c r="F31" t="n">
         <v>264.1570812390951</v>
@@ -6643,28 +6643,28 @@
         <v>1764.391130571116</v>
       </c>
       <c r="R31" t="n">
-        <v>1665.645682058886</v>
+        <v>1764.391130571116</v>
       </c>
       <c r="S31" t="n">
-        <v>1665.645682058886</v>
+        <v>1764.391130571116</v>
       </c>
       <c r="T31" t="n">
-        <v>1665.645682058886</v>
+        <v>1727.803016017334</v>
       </c>
       <c r="U31" t="n">
-        <v>1665.645682058886</v>
+        <v>1438.68933435373</v>
       </c>
       <c r="V31" t="n">
-        <v>1410.961193852999</v>
+        <v>1184.004846147843</v>
       </c>
       <c r="W31" t="n">
-        <v>1121.544023816038</v>
+        <v>894.5876761108823</v>
       </c>
       <c r="X31" t="n">
-        <v>1121.544023816038</v>
+        <v>666.5981252128649</v>
       </c>
       <c r="Y31" t="n">
-        <v>909.5447700775452</v>
+        <v>445.8055460693348</v>
       </c>
     </row>
     <row r="32">
@@ -6689,10 +6689,10 @@
         <v>872.9183322570125</v>
       </c>
       <c r="G32" t="n">
-        <v>457.4038706151732</v>
+        <v>457.4038706151731</v>
       </c>
       <c r="H32" t="n">
-        <v>155.2935200843819</v>
+        <v>155.2935200843818</v>
       </c>
       <c r="I32" t="n">
         <v>96.25597347760834</v>
@@ -6707,10 +6707,10 @@
         <v>1644.137352451265</v>
       </c>
       <c r="M32" t="n">
-        <v>2546.618811448022</v>
+        <v>2219.00717462097</v>
       </c>
       <c r="N32" t="n">
-        <v>3449.071366420851</v>
+        <v>3121.459729593798</v>
       </c>
       <c r="O32" t="n">
         <v>3928.432448882388</v>
@@ -6728,7 +6728,7 @@
         <v>4692.435668651237</v>
       </c>
       <c r="T32" t="n">
-        <v>4484.523015751834</v>
+        <v>4484.523015751835</v>
       </c>
       <c r="U32" t="n">
         <v>4230.957178106724</v>
@@ -6762,7 +6762,7 @@
         <v>648.3353552892904</v>
       </c>
       <c r="E33" t="n">
-        <v>489.097900283835</v>
+        <v>489.0979002838349</v>
       </c>
       <c r="F33" t="n">
         <v>342.5633423107199</v>
@@ -6777,13 +6777,13 @@
         <v>96.25597347760834</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0341044890102</v>
+        <v>269.536225196401</v>
       </c>
       <c r="K33" t="n">
-        <v>368.8691877649204</v>
+        <v>732.1918931147641</v>
       </c>
       <c r="L33" t="n">
-        <v>685.2392829732005</v>
+        <v>1048.561988323044</v>
       </c>
       <c r="M33" t="n">
         <v>1437.107835390016</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>734.3592382674667</v>
+        <v>734.3592382674666</v>
       </c>
       <c r="C34" t="n">
-        <v>621.8404745979163</v>
+        <v>621.8404745979162</v>
       </c>
       <c r="D34" t="n">
-        <v>528.1412544439372</v>
+        <v>528.141254443937</v>
       </c>
       <c r="E34" t="n">
-        <v>436.6455801199007</v>
+        <v>436.6455801199004</v>
       </c>
       <c r="F34" t="n">
-        <v>346.1730518803469</v>
+        <v>346.1730518803465</v>
       </c>
       <c r="G34" t="n">
-        <v>234.6893633772167</v>
+        <v>234.6893633772163</v>
       </c>
       <c r="H34" t="n">
-        <v>143.1267852060744</v>
+        <v>143.1267852060745</v>
       </c>
       <c r="I34" t="n">
         <v>96.25597347760834</v>
       </c>
       <c r="J34" t="n">
-        <v>182.9345028195775</v>
+        <v>182.9345028195772</v>
       </c>
       <c r="K34" t="n">
-        <v>419.6393037580524</v>
+        <v>419.6393037580519</v>
       </c>
       <c r="L34" t="n">
-        <v>762.6029067226261</v>
+        <v>762.6029067226257</v>
       </c>
       <c r="M34" t="n">
-        <v>1131.593253151079</v>
+        <v>1131.593253151078</v>
       </c>
       <c r="N34" t="n">
         <v>1498.55923497352</v>
@@ -6877,19 +6877,19 @@
         <v>2090.115936855522</v>
       </c>
       <c r="Q34" t="n">
-        <v>2206.748831492038</v>
+        <v>2206.748831492037</v>
       </c>
       <c r="R34" t="n">
         <v>2164.420802238164</v>
       </c>
       <c r="S34" t="n">
-        <v>2025.697012158744</v>
+        <v>2025.697012158743</v>
       </c>
       <c r="T34" t="n">
-        <v>1859.500657495566</v>
+        <v>1859.500657495565</v>
       </c>
       <c r="U34" t="n">
-        <v>1626.804395090318</v>
+        <v>1626.804395090319</v>
       </c>
       <c r="V34" t="n">
         <v>1428.537326142788</v>
@@ -6923,37 +6923,37 @@
         <v>1040.963921464717</v>
       </c>
       <c r="F35" t="n">
-        <v>686.3954359334662</v>
+        <v>686.3954359334663</v>
       </c>
       <c r="G35" t="n">
-        <v>327.2983935499833</v>
+        <v>327.2983935499834</v>
       </c>
       <c r="H35" t="n">
-        <v>81.60546227754884</v>
+        <v>81.60546227754861</v>
       </c>
       <c r="I35" t="n">
         <v>78.98533492913184</v>
       </c>
       <c r="J35" t="n">
-        <v>398.5014944090428</v>
+        <v>231.0958453886898</v>
       </c>
       <c r="K35" t="n">
-        <v>677.2142372517883</v>
+        <v>830.7125466768885</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.883802072742</v>
+        <v>1626.866713902788</v>
       </c>
       <c r="M35" t="n">
-        <v>1517.346862911596</v>
+        <v>2084.329774741641</v>
       </c>
       <c r="N35" t="n">
-        <v>2419.799417884424</v>
+        <v>2553.808874546606</v>
       </c>
       <c r="O35" t="n">
-        <v>3226.772137173014</v>
+        <v>3173.289401795026</v>
       </c>
       <c r="P35" t="n">
-        <v>3559.249579114821</v>
+        <v>3505.766843736833</v>
       </c>
       <c r="Q35" t="n">
         <v>3917.462650428954</v>
@@ -6965,10 +6965,10 @@
         <v>3885.321160485769</v>
       </c>
       <c r="T35" t="n">
-        <v>3733.825926844723</v>
+        <v>3733.825926844724</v>
       </c>
       <c r="U35" t="n">
-        <v>3536.67750845797</v>
+        <v>3536.677508457969</v>
       </c>
       <c r="V35" t="n">
         <v>3262.032040372756</v>
@@ -7008,34 +7008,34 @@
         <v>188.6931065998058</v>
       </c>
       <c r="H36" t="n">
-        <v>95.90714915384631</v>
+        <v>95.90714915384629</v>
       </c>
       <c r="I36" t="n">
         <v>78.98533492913184</v>
       </c>
       <c r="J36" t="n">
-        <v>150.7634659405337</v>
+        <v>275.5935909275385</v>
       </c>
       <c r="K36" t="n">
-        <v>613.4191338588967</v>
+        <v>506.9447397077969</v>
       </c>
       <c r="L36" t="n">
-        <v>1000.757733654957</v>
+        <v>823.3148349160771</v>
       </c>
       <c r="M36" t="n">
-        <v>1389.303580721928</v>
+        <v>1211.860681983048</v>
       </c>
       <c r="N36" t="n">
-        <v>1802.541725122258</v>
+        <v>1625.098826383378</v>
       </c>
       <c r="O36" t="n">
-        <v>2158.354099425323</v>
+        <v>1980.911200686443</v>
       </c>
       <c r="P36" t="n">
-        <v>2424.591832533286</v>
+        <v>2247.148933794407</v>
       </c>
       <c r="Q36" t="n">
-        <v>2552.645510030446</v>
+        <v>2583.179126150057</v>
       </c>
       <c r="R36" t="n">
         <v>2583.179126150057</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>717.0885997189898</v>
+        <v>717.0885997189897</v>
       </c>
       <c r="C37" t="n">
-        <v>604.5698360494395</v>
+        <v>604.5698360494393</v>
       </c>
       <c r="D37" t="n">
-        <v>510.8706158954603</v>
+        <v>510.8706158954601</v>
       </c>
       <c r="E37" t="n">
-        <v>419.3749415714238</v>
+        <v>419.3749415714235</v>
       </c>
       <c r="F37" t="n">
-        <v>328.90241333187</v>
+        <v>328.9024133318696</v>
       </c>
       <c r="G37" t="n">
-        <v>217.4187248287398</v>
+        <v>217.4187248287399</v>
       </c>
       <c r="H37" t="n">
-        <v>125.8561466575979</v>
+        <v>125.856146657598</v>
       </c>
       <c r="I37" t="n">
         <v>78.98533492913184</v>
@@ -7096,10 +7096,10 @@
         <v>165.663864271101</v>
       </c>
       <c r="K37" t="n">
-        <v>402.3686652095757</v>
+        <v>402.3686652095759</v>
       </c>
       <c r="L37" t="n">
-        <v>745.3322681741497</v>
+        <v>745.3322681741496</v>
       </c>
       <c r="M37" t="n">
         <v>1114.322614602602</v>
@@ -7108,19 +7108,19 @@
         <v>1481.288596425044</v>
       </c>
       <c r="O37" t="n">
-        <v>1808.445876095351</v>
+        <v>1808.44587609535</v>
       </c>
       <c r="P37" t="n">
         <v>2072.845298307046</v>
       </c>
       <c r="Q37" t="n">
-        <v>2189.478192943561</v>
+        <v>2189.478192943562</v>
       </c>
       <c r="R37" t="n">
-        <v>2147.150163689687</v>
+        <v>2147.150163689688</v>
       </c>
       <c r="S37" t="n">
-        <v>2008.426373610267</v>
+        <v>2008.426373610268</v>
       </c>
       <c r="T37" t="n">
         <v>1842.230018947089</v>
@@ -7135,7 +7135,7 @@
         <v>1178.266936815707</v>
       </c>
       <c r="X37" t="n">
-        <v>1006.694805176046</v>
+        <v>1006.694805176047</v>
       </c>
       <c r="Y37" t="n">
         <v>842.3196452908729</v>
@@ -7157,16 +7157,16 @@
         <v>1370.334754804605</v>
       </c>
       <c r="E38" t="n">
-        <v>1040.963921464718</v>
+        <v>1040.963921464717</v>
       </c>
       <c r="F38" t="n">
-        <v>686.3954359334666</v>
+        <v>686.3954359334665</v>
       </c>
       <c r="G38" t="n">
         <v>327.2983935499836</v>
       </c>
       <c r="H38" t="n">
-        <v>81.60546227754887</v>
+        <v>81.60546227754884</v>
       </c>
       <c r="I38" t="n">
         <v>78.98533492913184</v>
@@ -7175,22 +7175,22 @@
         <v>231.0958453886898</v>
       </c>
       <c r="K38" t="n">
-        <v>509.8085882314352</v>
+        <v>623.7315018738005</v>
       </c>
       <c r="L38" t="n">
-        <v>892.478153052389</v>
+        <v>1006.401066694754</v>
       </c>
       <c r="M38" t="n">
-        <v>1794.959612049146</v>
+        <v>1463.864127533608</v>
       </c>
       <c r="N38" t="n">
-        <v>2697.412167021975</v>
+        <v>2366.316682506436</v>
       </c>
       <c r="O38" t="n">
-        <v>3127.392706860447</v>
+        <v>3173.289401795026</v>
       </c>
       <c r="P38" t="n">
-        <v>3715.958684490139</v>
+        <v>3505.766843736833</v>
       </c>
       <c r="Q38" t="n">
         <v>3917.462650428954</v>
@@ -7217,7 +7217,7 @@
         <v>2648.632465358275</v>
       </c>
       <c r="Y38" t="n">
-        <v>2314.91055264082</v>
+        <v>2314.910552640819</v>
       </c>
     </row>
     <row r="39">
@@ -7245,16 +7245,16 @@
         <v>188.6931065998058</v>
       </c>
       <c r="H39" t="n">
-        <v>95.90714915384631</v>
+        <v>95.90714915384629</v>
       </c>
       <c r="I39" t="n">
         <v>78.98533492913184</v>
       </c>
       <c r="J39" t="n">
-        <v>150.7634659405337</v>
+        <v>275.5935909275385</v>
       </c>
       <c r="K39" t="n">
-        <v>351.5985492164439</v>
+        <v>714.9212545662874</v>
       </c>
       <c r="L39" t="n">
         <v>1031.291349774568</v>
@@ -7315,25 +7315,25 @@
         <v>510.8706158954604</v>
       </c>
       <c r="E40" t="n">
-        <v>419.3749415714239</v>
+        <v>419.3749415714238</v>
       </c>
       <c r="F40" t="n">
-        <v>328.9024133318701</v>
+        <v>328.90241333187</v>
       </c>
       <c r="G40" t="n">
-        <v>217.4187248287399</v>
+        <v>217.4187248287398</v>
       </c>
       <c r="H40" t="n">
-        <v>125.856146657598</v>
+        <v>125.8561466575979</v>
       </c>
       <c r="I40" t="n">
         <v>78.98533492913184</v>
       </c>
       <c r="J40" t="n">
-        <v>165.663864271101</v>
+        <v>165.6638642711009</v>
       </c>
       <c r="K40" t="n">
-        <v>402.3686652095759</v>
+        <v>402.3686652095757</v>
       </c>
       <c r="L40" t="n">
         <v>745.3322681741495</v>
@@ -7342,22 +7342,22 @@
         <v>1114.322614602602</v>
       </c>
       <c r="N40" t="n">
-        <v>1481.288596425043</v>
+        <v>1481.288596425044</v>
       </c>
       <c r="O40" t="n">
-        <v>1808.44587609535</v>
+        <v>1808.445876095351</v>
       </c>
       <c r="P40" t="n">
-        <v>2072.845298307045</v>
+        <v>2072.845298307046</v>
       </c>
       <c r="Q40" t="n">
-        <v>2189.478192943561</v>
+        <v>2189.478192943562</v>
       </c>
       <c r="R40" t="n">
-        <v>2147.150163689687</v>
+        <v>2147.150163689688</v>
       </c>
       <c r="S40" t="n">
-        <v>2008.426373610267</v>
+        <v>2008.426373610268</v>
       </c>
       <c r="T40" t="n">
         <v>1842.230018947089</v>
@@ -7372,10 +7372,10 @@
         <v>1178.266936815707</v>
       </c>
       <c r="X40" t="n">
-        <v>1006.694805176046</v>
+        <v>1006.694805176047</v>
       </c>
       <c r="Y40" t="n">
-        <v>842.3196452908729</v>
+        <v>842.3196452908732</v>
       </c>
     </row>
     <row r="41">
@@ -7397,13 +7397,13 @@
         <v>1040.963921464717</v>
       </c>
       <c r="F41" t="n">
-        <v>686.3954359334663</v>
+        <v>686.3954359334664</v>
       </c>
       <c r="G41" t="n">
-        <v>327.2983935499836</v>
+        <v>327.2983935499835</v>
       </c>
       <c r="H41" t="n">
-        <v>81.6054622775489</v>
+        <v>81.60546227754881</v>
       </c>
       <c r="I41" t="n">
         <v>78.98533492913184</v>
@@ -7412,46 +7412,46 @@
         <v>231.0958453886898</v>
       </c>
       <c r="K41" t="n">
-        <v>509.8085882314352</v>
+        <v>509.8085882314354</v>
       </c>
       <c r="L41" t="n">
-        <v>1305.962755457335</v>
+        <v>892.4781530523891</v>
       </c>
       <c r="M41" t="n">
-        <v>1763.425816296188</v>
+        <v>1794.959612049146</v>
       </c>
       <c r="N41" t="n">
-        <v>2665.878371269017</v>
+        <v>2424.728140866786</v>
       </c>
       <c r="O41" t="n">
-        <v>3318.421986874079</v>
+        <v>2854.708680705258</v>
       </c>
       <c r="P41" t="n">
-        <v>3650.899428815886</v>
+        <v>3505.766843736833</v>
       </c>
       <c r="Q41" t="n">
-        <v>3852.403394754701</v>
+        <v>3917.462650428954</v>
       </c>
       <c r="R41" t="n">
         <v>3949.266746456592</v>
       </c>
       <c r="S41" t="n">
-        <v>3885.321160485769</v>
+        <v>3885.321160485768</v>
       </c>
       <c r="T41" t="n">
-        <v>3733.825926844724</v>
+        <v>3733.825926844723</v>
       </c>
       <c r="U41" t="n">
         <v>3536.677508457969</v>
       </c>
       <c r="V41" t="n">
-        <v>3262.032040372756</v>
+        <v>3262.032040372755</v>
       </c>
       <c r="W41" t="n">
         <v>2965.680804360998</v>
       </c>
       <c r="X41" t="n">
-        <v>2648.632465358275</v>
+        <v>2648.632465358274</v>
       </c>
       <c r="Y41" t="n">
         <v>2314.910552640819</v>
@@ -7482,22 +7482,22 @@
         <v>188.6931065998058</v>
       </c>
       <c r="H42" t="n">
-        <v>95.90714915384631</v>
+        <v>95.90714915384629</v>
       </c>
       <c r="I42" t="n">
         <v>78.98533492913184</v>
       </c>
       <c r="J42" t="n">
-        <v>150.7634659405337</v>
+        <v>275.5935909275385</v>
       </c>
       <c r="K42" t="n">
-        <v>351.5985492164439</v>
+        <v>714.9212545662874</v>
       </c>
       <c r="L42" t="n">
-        <v>667.9686444247239</v>
+        <v>1031.291349774568</v>
       </c>
       <c r="M42" t="n">
-        <v>1056.514491491695</v>
+        <v>1419.837196841539</v>
       </c>
       <c r="N42" t="n">
         <v>1833.075341241869</v>
@@ -7549,19 +7549,19 @@
         <v>604.5698360494396</v>
       </c>
       <c r="D43" t="n">
-        <v>510.8706158954603</v>
+        <v>510.8706158954604</v>
       </c>
       <c r="E43" t="n">
-        <v>419.3749415714237</v>
+        <v>419.3749415714239</v>
       </c>
       <c r="F43" t="n">
-        <v>328.9024133318699</v>
+        <v>328.9024133318701</v>
       </c>
       <c r="G43" t="n">
-        <v>217.4187248287396</v>
+        <v>217.4187248287399</v>
       </c>
       <c r="H43" t="n">
-        <v>125.856146657598</v>
+        <v>125.8561466575979</v>
       </c>
       <c r="I43" t="n">
         <v>78.98533492913184</v>
@@ -7570,10 +7570,10 @@
         <v>165.663864271101</v>
       </c>
       <c r="K43" t="n">
-        <v>402.3686652095759</v>
+        <v>402.368665209576</v>
       </c>
       <c r="L43" t="n">
-        <v>745.3322681741496</v>
+        <v>745.3322681741497</v>
       </c>
       <c r="M43" t="n">
         <v>1114.322614602602</v>
@@ -7591,10 +7591,10 @@
         <v>2189.478192943562</v>
       </c>
       <c r="R43" t="n">
-        <v>2147.150163689687</v>
+        <v>2147.150163689688</v>
       </c>
       <c r="S43" t="n">
-        <v>2008.426373610267</v>
+        <v>2008.426373610268</v>
       </c>
       <c r="T43" t="n">
         <v>1842.230018947089</v>
@@ -7603,16 +7603,16 @@
         <v>1609.533756541842</v>
       </c>
       <c r="V43" t="n">
-        <v>1411.266687594312</v>
+        <v>1411.266687594311</v>
       </c>
       <c r="W43" t="n">
-        <v>1178.266936815708</v>
+        <v>1178.266936815707</v>
       </c>
       <c r="X43" t="n">
         <v>1006.694805176047</v>
       </c>
       <c r="Y43" t="n">
-        <v>842.3196452908732</v>
+        <v>842.319645290873</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1984.728131835055</v>
+        <v>1984.728131835053</v>
       </c>
       <c r="C44" t="n">
-        <v>1672.183034152999</v>
+        <v>1672.183034152998</v>
       </c>
       <c r="D44" t="n">
-        <v>1370.334754804605</v>
+        <v>1370.334754804604</v>
       </c>
       <c r="E44" t="n">
-        <v>1040.963921464718</v>
+        <v>1040.963921464717</v>
       </c>
       <c r="F44" t="n">
-        <v>686.3954359334666</v>
+        <v>686.3954359334657</v>
       </c>
       <c r="G44" t="n">
-        <v>327.2983935499836</v>
+        <v>327.2983935499833</v>
       </c>
       <c r="H44" t="n">
-        <v>81.60546227754884</v>
+        <v>81.60546227754882</v>
       </c>
       <c r="I44" t="n">
         <v>78.98533492913184</v>
       </c>
       <c r="J44" t="n">
-        <v>256.118731457511</v>
+        <v>398.5014944090429</v>
       </c>
       <c r="K44" t="n">
-        <v>534.8314743002564</v>
+        <v>677.2142372517884</v>
       </c>
       <c r="L44" t="n">
-        <v>1330.985641526156</v>
+        <v>1059.883802072742</v>
       </c>
       <c r="M44" t="n">
-        <v>1788.448702365009</v>
+        <v>1517.346862911596</v>
       </c>
       <c r="N44" t="n">
-        <v>2257.927802169974</v>
+        <v>1986.82596271656</v>
       </c>
       <c r="O44" t="n">
-        <v>3064.900521458563</v>
+        <v>2789.649425031005</v>
       </c>
       <c r="P44" t="n">
-        <v>3715.958684490139</v>
+        <v>3440.707588062581</v>
       </c>
       <c r="Q44" t="n">
-        <v>3917.462650428954</v>
+        <v>3852.403394754701</v>
       </c>
       <c r="R44" t="n">
         <v>3949.266746456592</v>
@@ -7679,19 +7679,19 @@
         <v>3733.825926844724</v>
       </c>
       <c r="U44" t="n">
-        <v>3536.67750845797</v>
+        <v>3536.677508457969</v>
       </c>
       <c r="V44" t="n">
-        <v>3262.032040372756</v>
+        <v>3262.032040372755</v>
       </c>
       <c r="W44" t="n">
-        <v>2965.680804360999</v>
+        <v>2965.680804360997</v>
       </c>
       <c r="X44" t="n">
-        <v>2648.632465358275</v>
+        <v>2648.632465358274</v>
       </c>
       <c r="Y44" t="n">
-        <v>2314.91055264082</v>
+        <v>2314.910552640818</v>
       </c>
     </row>
     <row r="45">
@@ -7719,7 +7719,7 @@
         <v>188.6931065998058</v>
       </c>
       <c r="H45" t="n">
-        <v>95.90714915384631</v>
+        <v>95.90714915384629</v>
       </c>
       <c r="I45" t="n">
         <v>78.98533492913184</v>
@@ -7728,22 +7728,22 @@
         <v>150.7634659405337</v>
       </c>
       <c r="K45" t="n">
-        <v>351.5985492164439</v>
+        <v>613.4191338588968</v>
       </c>
       <c r="L45" t="n">
-        <v>667.9686444247239</v>
+        <v>929.7892290671768</v>
       </c>
       <c r="M45" t="n">
-        <v>1056.514491491695</v>
+        <v>1318.335076134148</v>
       </c>
       <c r="N45" t="n">
-        <v>1469.752635892025</v>
+        <v>1731.573220534478</v>
       </c>
       <c r="O45" t="n">
-        <v>1980.911200686443</v>
+        <v>2087.385594837543</v>
       </c>
       <c r="P45" t="n">
-        <v>2247.148933794407</v>
+        <v>2353.623327945506</v>
       </c>
       <c r="Q45" t="n">
         <v>2583.179126150057</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>717.0885997189897</v>
+        <v>717.0885997189899</v>
       </c>
       <c r="C46" t="n">
-        <v>604.5698360494393</v>
+        <v>604.5698360494396</v>
       </c>
       <c r="D46" t="n">
-        <v>510.8706158954602</v>
+        <v>510.8706158954604</v>
       </c>
       <c r="E46" t="n">
-        <v>419.3749415714237</v>
+        <v>419.3749415714239</v>
       </c>
       <c r="F46" t="n">
-        <v>328.9024133318699</v>
+        <v>328.9024133318701</v>
       </c>
       <c r="G46" t="n">
-        <v>217.4187248287397</v>
+        <v>217.4187248287399</v>
       </c>
       <c r="H46" t="n">
-        <v>125.8561466575979</v>
+        <v>125.856146657598</v>
       </c>
       <c r="I46" t="n">
         <v>78.98533492913184</v>
@@ -7816,10 +7816,10 @@
         <v>1114.322614602602</v>
       </c>
       <c r="N46" t="n">
-        <v>1481.288596425043</v>
+        <v>1481.288596425044</v>
       </c>
       <c r="O46" t="n">
-        <v>1808.44587609535</v>
+        <v>1808.445876095351</v>
       </c>
       <c r="P46" t="n">
         <v>2072.845298307046</v>
@@ -7849,7 +7849,7 @@
         <v>1006.694805176047</v>
       </c>
       <c r="Y46" t="n">
-        <v>842.3196452908728</v>
+        <v>842.3196452908732</v>
       </c>
     </row>
   </sheetData>
@@ -8061,22 +8061,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>302.1855340836295</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>140.1317786452013</v>
+        <v>384.6945110063436</v>
       </c>
       <c r="N3" t="n">
-        <v>373.8491954283779</v>
+        <v>234.0901525809383</v>
       </c>
       <c r="O3" t="n">
-        <v>385.2788254813443</v>
+        <v>140.7160931202018</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9730561082392</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M6" t="n">
         <v>392.8337743093848</v>
       </c>
       <c r="N6" t="n">
-        <v>256.8631151755579</v>
+        <v>381.709495280812</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>124.5219861368073</v>
+        <v>162.3651468139937</v>
       </c>
       <c r="Q6" t="n">
-        <v>133.663080786811</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,16 +8535,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>246.5793878285064</v>
       </c>
       <c r="M9" t="n">
-        <v>267.9751899443178</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N9" t="n">
         <v>387.9064735273546</v>
       </c>
       <c r="O9" t="n">
-        <v>124.673618687554</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>210.7147969150172</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>457.3348210816837</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>36.09354640945521</v>
+        <v>36.0935464094552</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,10 +8933,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>277.9082020920788</v>
       </c>
       <c r="N14" t="n">
-        <v>40.70965925915146</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9018,13 +9018,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>102.5273946539306</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>102.5273946539301</v>
       </c>
       <c r="R15" t="n">
         <v>14.67963332686526</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>162.3599858515774</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>195.7584566582422</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9243,13 +9243,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>366.9926316665091</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>102.5273946539301</v>
       </c>
       <c r="R18" t="n">
         <v>14.67963332686526</v>
@@ -9401,28 +9401,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>195.7584566582431</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>58.97979055248557</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>48.52986302657195</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>366.9926316665091</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9635,19 +9635,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>40.70965925915127</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>301.4408677183765</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9717,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>366.9926316665092</v>
+        <v>102.5273946539303</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9878,25 +9878,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>142.6756878506051</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>27.12747161010449</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,16 +9954,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>71.68535816947468</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>336.1505951820535</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -10121,19 +10121,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>274.9112697349739</v>
+        <v>93.6466336214902</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,10 +10191,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>336.1505951820536</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10209,10 +10209,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>102.5273946539301</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>14.67963332686526</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,13 +10355,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>118.5926882129814</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>49.87933598289447</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>102.5273946539301</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>366.9926316665091</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>191.4141286969175</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>158.292025631634</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>30.82430859025075</v>
       </c>
       <c r="L36" t="n">
-        <v>71.68535816947485</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10683,10 +10683,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>14.67963332686526</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,25 +10823,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>115.0736501438032</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>258.6752885736207</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>240.9015963260997</v>
       </c>
       <c r="L39" t="n">
-        <v>366.9926316665089</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -11063,25 +11063,25 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>161.9085141542177</v>
       </c>
       <c r="O41" t="n">
-        <v>224.8111876430205</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>240.9015963260997</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>366.9926316665091</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>25.2756424937588</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,16 +11309,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>376.6090126019936</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,13 +11388,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>156.91534393066</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>102.5273946539301</v>
       </c>
       <c r="R45" t="n">
         <v>14.67963332686526</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32.3517637284253</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,7 +22553,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>70.56613598019928</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>6.781739002849009</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>149.2371023278296</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>49.66008801512089</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.66008801512054</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.001575695071409</v>
+        <v>60.50947753420171</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>149.0710097406109</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.9508977977397</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>110.7592594295882</v>
       </c>
       <c r="S13" t="n">
-        <v>198.2289047608879</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.6230981190694</v>
@@ -23476,10 +23476,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23659,16 +23659,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.2220966838719</v>
       </c>
       <c r="H16" t="n">
-        <v>146.5001974552034</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>102.2553486769544</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>156.4517992900786</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>11.09698607578122</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>31.79233951107749</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>102.2553486769544</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>97.75799402710823</v>
+        <v>97.75799402710821</v>
       </c>
       <c r="S19" t="n">
-        <v>193.189797244399</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.222544846968</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>48.36191790862023</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24127,13 +24127,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>62.27484700321428</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>146.5001974552034</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>102.2553486769544</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>97.75799402710823</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>193.189797244399</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>220.3876361823193</v>
       </c>
       <c r="U22" t="n">
-        <v>286.222544846968</v>
+        <v>104.2328734615744</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>61.87238851399833</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24412,25 +24412,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>119.6745876611375</v>
       </c>
       <c r="T25" t="n">
-        <v>220.3876361823193</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.222544846968</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.2220966838719</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>146.5001974552034</v>
       </c>
       <c r="I28" t="n">
-        <v>102.2553486769544</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>97.75799402710821</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>193.189797244399</v>
       </c>
       <c r="T28" t="n">
-        <v>220.3876361823193</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>269.9325067513328</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>16.67648446154158</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>97.75799402710821</v>
       </c>
       <c r="S31" t="n">
         <v>193.189797244399</v>
       </c>
       <c r="T31" t="n">
-        <v>220.3876361823193</v>
+        <v>184.1654027740748</v>
       </c>
       <c r="U31" t="n">
-        <v>286.222544846968</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.705392150987024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-2.577937990865371e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>5.258016244624741e-13</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1333283.167854406</v>
+        <v>1333283.167854405</v>
       </c>
     </row>
     <row r="6">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81488.48790156332</v>
+        <v>81488.48790156335</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642831</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="E2" t="n">
-        <v>77764.76536808244</v>
+        <v>77764.76536808242</v>
       </c>
       <c r="F2" t="n">
         <v>78908.37047851452</v>
       </c>
       <c r="G2" t="n">
-        <v>78908.37047851454</v>
+        <v>78908.37047851452</v>
       </c>
       <c r="H2" t="n">
-        <v>78908.37047851445</v>
+        <v>78908.37047851451</v>
       </c>
       <c r="I2" t="n">
-        <v>78908.37047851451</v>
+        <v>78908.37047851449</v>
       </c>
       <c r="J2" t="n">
-        <v>78908.37047851454</v>
+        <v>78908.37047851452</v>
       </c>
       <c r="K2" t="n">
         <v>78908.37047851451</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.1769864283</v>
+        <v>82104.17698642831</v>
       </c>
       <c r="M2" t="n">
+        <v>82104.17698642834</v>
+      </c>
+      <c r="N2" t="n">
         <v>82104.17698642836</v>
-      </c>
-      <c r="N2" t="n">
-        <v>82104.17698642833</v>
       </c>
       <c r="O2" t="n">
         <v>82104.17698642833</v>
@@ -26393,7 +26393,7 @@
         <v>4807.454491750026</v>
       </c>
       <c r="L3" t="n">
-        <v>47951.13464720003</v>
+        <v>47951.13464719994</v>
       </c>
       <c r="M3" t="n">
         <v>177223.9597303103</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>332882.3550555544</v>
+        <v>332882.3550555543</v>
       </c>
       <c r="C4" t="n">
         <v>329611.4098734583</v>
@@ -26427,37 +26427,37 @@
         <v>50946.11483217437</v>
       </c>
       <c r="F4" t="n">
+        <v>35831.93522962282</v>
+      </c>
+      <c r="G4" t="n">
         <v>35831.93522962283</v>
       </c>
-      <c r="G4" t="n">
-        <v>35831.93522962279</v>
-      </c>
       <c r="H4" t="n">
-        <v>35831.9352296228</v>
+        <v>35831.93522962277</v>
       </c>
       <c r="I4" t="n">
         <v>35831.93522962283</v>
       </c>
       <c r="J4" t="n">
-        <v>35831.93522962283</v>
+        <v>35831.93522962282</v>
       </c>
       <c r="K4" t="n">
         <v>35831.93522962282</v>
       </c>
       <c r="L4" t="n">
-        <v>54210.43633217989</v>
+        <v>54210.43633217987</v>
       </c>
       <c r="M4" t="n">
-        <v>80264.63424737917</v>
+        <v>80264.63424737912</v>
       </c>
       <c r="N4" t="n">
+        <v>80264.63424737909</v>
+      </c>
+      <c r="O4" t="n">
+        <v>80264.63424737912</v>
+      </c>
+      <c r="P4" t="n">
         <v>80264.63424737914</v>
-      </c>
-      <c r="O4" t="n">
-        <v>80264.63424737913</v>
-      </c>
-      <c r="P4" t="n">
-        <v>80264.63424737917</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-385469.7500938303</v>
+        <v>-385485.1423209518</v>
       </c>
       <c r="C6" t="n">
-        <v>-321286.9804757584</v>
+        <v>-321286.9804757583</v>
       </c>
       <c r="D6" t="n">
         <v>-308692.1664302879</v>
       </c>
       <c r="E6" t="n">
-        <v>-972138.3658202228</v>
+        <v>-972246.8511106814</v>
       </c>
       <c r="F6" t="n">
-        <v>-178207.9207062971</v>
+        <v>-178287.8158689949</v>
       </c>
       <c r="G6" t="n">
-        <v>-51462.28805468732</v>
+        <v>-51542.18321738522</v>
       </c>
       <c r="H6" t="n">
-        <v>-51462.28805468742</v>
+        <v>-51542.18321738517</v>
       </c>
       <c r="I6" t="n">
-        <v>-51462.28805468739</v>
+        <v>-51542.18321738525</v>
       </c>
       <c r="J6" t="n">
-        <v>-115450.6596005861</v>
+        <v>-115530.554763284</v>
       </c>
       <c r="K6" t="n">
-        <v>-56269.74254643742</v>
+        <v>-56349.63770913526</v>
       </c>
       <c r="L6" t="n">
-        <v>-119291.6437559652</v>
+        <v>-119291.643755965</v>
       </c>
       <c r="M6" t="n">
-        <v>-261492.9814574326</v>
+        <v>-261492.9814574325</v>
       </c>
       <c r="N6" t="n">
-        <v>-84269.02172712222</v>
+        <v>-84269.02172712213</v>
       </c>
       <c r="O6" t="n">
-        <v>-84269.02172712221</v>
+        <v>-84269.02172712219</v>
       </c>
       <c r="P6" t="n">
-        <v>-84269.02172712226</v>
+        <v>-84269.02172712224</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>55.85324506577294</v>
+      </c>
+      <c r="M2" t="n">
+        <v>55.85324506577294</v>
+      </c>
+      <c r="N2" t="n">
+        <v>55.85324506577296</v>
+      </c>
+      <c r="O2" t="n">
         <v>55.853245065773</v>
       </c>
-      <c r="M2" t="n">
-        <v>55.853245065773</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>55.85324506577297</v>
-      </c>
-      <c r="O2" t="n">
-        <v>55.85324506577295</v>
-      </c>
-      <c r="P2" t="n">
-        <v>55.85324506577299</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>35.02126071912533</v>
       </c>
       <c r="E3" t="n">
-        <v>820.5786592807235</v>
+        <v>820.5786592807236</v>
       </c>
       <c r="F3" t="n">
-        <v>980.9258468163645</v>
+        <v>980.9258468163646</v>
       </c>
       <c r="G3" t="n">
-        <v>980.9258468163645</v>
+        <v>980.9258468163646</v>
       </c>
       <c r="H3" t="n">
-        <v>980.9258468163645</v>
+        <v>980.9258468163646</v>
       </c>
       <c r="I3" t="n">
-        <v>980.9258468163645</v>
+        <v>980.9258468163646</v>
       </c>
       <c r="J3" t="n">
-        <v>980.9258468163645</v>
+        <v>980.9258468163646</v>
       </c>
       <c r="K3" t="n">
-        <v>980.9258468163645</v>
+        <v>980.9258468163646</v>
       </c>
       <c r="L3" t="n">
-        <v>980.9258468163645</v>
+        <v>980.9258468163646</v>
       </c>
       <c r="M3" t="n">
-        <v>980.9258468163645</v>
+        <v>980.9258468163646</v>
       </c>
       <c r="N3" t="n">
-        <v>980.9258468163645</v>
+        <v>980.9258468163646</v>
       </c>
       <c r="O3" t="n">
-        <v>980.9258468163645</v>
+        <v>980.9258468163646</v>
       </c>
       <c r="P3" t="n">
-        <v>980.9258468163645</v>
+        <v>980.9258468163646</v>
       </c>
     </row>
     <row r="4">
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577292</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>12.00787803233601</v>
       </c>
       <c r="E3" t="n">
-        <v>785.5573985615982</v>
+        <v>785.5573985615983</v>
       </c>
       <c r="F3" t="n">
         <v>160.347187535641</v>
@@ -27039,7 +27039,7 @@
         <v>18.67930159052418</v>
       </c>
       <c r="L4" t="n">
-        <v>12.914479750689</v>
+        <v>12.91447975068888</v>
       </c>
       <c r="M4" t="n">
         <v>711.1601729117924</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>105.8193455739128</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>110.1203092595405</v>
       </c>
       <c r="E2" t="n">
-        <v>324.4891411680627</v>
+        <v>83.46115723283012</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>94.7608136808341</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I2" t="n">
-        <v>209.9064962068211</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>10.69576364311372</v>
@@ -27421,19 +27421,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S2" t="n">
         <v>208.6835142066282</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3444713639914</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,13 +27470,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H3" t="n">
-        <v>112.1591249337519</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.12455904281175</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,19 +27509,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>165.0125860279771</v>
+        <v>188.5701960237856</v>
       </c>
       <c r="U3" t="n">
         <v>225.9408621947163</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>7.132250799777182</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27552,7 +27552,7 @@
         <v>167.9843543597988</v>
       </c>
       <c r="H4" t="n">
-        <v>162.1682702466266</v>
+        <v>27.006881842345</v>
       </c>
       <c r="I4" t="n">
         <v>155.2512431493756</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.920177260816417</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>85.60728995481479</v>
@@ -27591,7 +27591,7 @@
         <v>227.9172826158254</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.491807711814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>131.6018800484097</v>
+        <v>123.7951977685274</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27637,7 +27637,7 @@
         <v>206.909162189371</v>
       </c>
       <c r="J5" t="n">
-        <v>4.097100052852173</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.99893476574641</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.995904704387</v>
       </c>
     </row>
     <row r="6">
@@ -27692,19 +27692,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>62.69808938600765</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>97.08446202703757</v>
+        <v>43.99446760888694</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T6" t="n">
         <v>199.9652070090748</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27758,7 +27758,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27798,7 +27798,7 @@
         <v>90.42516245839145</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>82.6870224659892</v>
       </c>
       <c r="R7" t="n">
-        <v>33.04035144843769</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S7" t="n">
         <v>223.2933741908973</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>126.6879292296162</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>89.11637806865207</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>195.802977576931</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>61.87643319194537</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I8" t="n">
         <v>205.0481221176458</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U8" t="n">
         <v>251.3343897888113</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777942</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505753</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>306.0625573413292</v>
       </c>
     </row>
     <row r="9">
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>54.10939537382907</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27947,7 +27947,7 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>66.19659494358316</v>
       </c>
       <c r="I9" t="n">
         <v>86.80307722268739</v>
@@ -27983,7 +27983,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27995,7 +27995,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>73.67046520058723</v>
+        <v>139.2305949640499</v>
       </c>
       <c r="H10" t="n">
         <v>161.6656840978772</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R10" t="n">
         <v>174.4537986637794</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-1.2049910847117e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="C34" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="D34" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="E34" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="F34" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="G34" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="H34" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="I34" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="J34" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="K34" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="L34" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="M34" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="N34" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="O34" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="P34" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="Q34" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="R34" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="S34" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="T34" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="U34" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="V34" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="W34" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="X34" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="Y34" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="C35" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="D35" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="E35" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="F35" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="G35" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="H35" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="I35" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577319</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="T35" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="U35" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="V35" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="W35" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="X35" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="Y35" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="C37" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="D37" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="E37" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="F37" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="G37" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="H37" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="I37" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="J37" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="K37" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="L37" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="M37" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="N37" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="O37" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="P37" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="Q37" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="R37" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="S37" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="T37" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="U37" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="V37" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="W37" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="X37" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
       <c r="Y37" t="n">
-        <v>55.853245065773</v>
+        <v>55.85324506577294</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>55.85324506577297</v>
+        <v>55.85324506577296</v>
       </c>
       <c r="C38" t="n">
-        <v>55.85324506577297</v>
+        <v>55.85324506577296</v>
       </c>
       <c r="D38" t="n">
-        <v>55.85324506577297</v>
+        <v>55.85324506577296</v>
       </c>
       <c r="E38" t="n">
-        <v>55.85324506577297</v>
+        <v>55.85324506577296</v>
       </c>
       <c r="F38" t="n">
-        <v>55.85324506577285</v>
+        <v>55.85324506577296</v>
       </c>
       <c r="G38" t="n">
-        <v>55.85324506577297</v>
+        <v>55.85324506577296</v>
       </c>
       <c r="H38" t="n">
-        <v>55.85324506577297</v>
+        <v>55.85324506577296</v>
       </c>
       <c r="I38" t="n">
-        <v>55.85324506577297</v>
+        <v>55.85324506577296</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>55.85324506577297</v>
+        <v>55.85324506577296</v>
       </c>
       <c r="T38" t="n">
-        <v>55.85324506577297</v>
+        <v>55.85324506577296</v>
       </c>
       <c r="U38" t="n">
-        <v>55.85324506577297</v>
+        <v>55.85324506577296</v>
       </c>
       <c r="V38" t="n">
-        <v>55.85324506577297</v>
+        <v>55.85324506577296</v>
       </c>
       <c r="W38" t="n">
-        <v>55.85324506577297</v>
+        <v>55.85324506577296</v>
       </c>
       <c r="X38" t="n">
-        <v>55.85324506577297</v>
+        <v>55.85324506577296</v>
       </c>
       <c r="Y38" t="n">
-        <v>55.85324506577297</v>
+        <v>55.8532450657724</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>55.85324506577297</v>
+        <v>55.85324506577296</v>
       </c>
       <c r="C40" t="n">
-        <v>55.85324506577297</v>
+        <v>55.85324506577296</v>
       </c>
       <c r="D40" t="n">
-        <v>55.85324506577297</v>
+        <v>55.85324506577296</v>
       </c>
       <c r="E40" t="n">
-        <v>55.85324506577297</v>
+        <v>55.85324506577296</v>
       </c>
       <c r="F40" t="n">
-        <v>55.85324506577297</v>
+        <v>55.85324506577296</v>
       </c>
       <c r="G40" t="n">
-        <v>55.85324506577297</v>
+        <v>55.85324506577296</v>
       </c>
       <c r="H40" t="n">
-        <v>55.85324506577297</v>
+        <v>55.85324506577296</v>
       </c>
       <c r="I40" t="n">
-        <v>55.85324506577297</v>
+        <v>55.85324506577296</v>
       </c>
       <c r="J40" t="n">
-        <v>55.85324506577297</v>
+        <v>55.85324506577296</v>
       </c>
       <c r="K40" t="n">
-        <v>55.85324506577297</v>
+        <v>55.85324506577296</v>
       </c>
       <c r="L40" t="n">
-        <v>55.85324506577297</v>
+        <v>55.85324506577296</v>
       </c>
       <c r="M40" t="n">
-        <v>55.85324506577297</v>
+        <v>55.85324506577296</v>
       </c>
       <c r="N40" t="n">
-        <v>55.85324506577297</v>
+        <v>55.85324506577296</v>
       </c>
       <c r="O40" t="n">
-        <v>55.85324506577297</v>
+        <v>55.85324506577296</v>
       </c>
       <c r="P40" t="n">
-        <v>55.85324506577297</v>
+        <v>55.85324506577296</v>
       </c>
       <c r="Q40" t="n">
-        <v>55.85324506577297</v>
+        <v>55.85324506577296</v>
       </c>
       <c r="R40" t="n">
-        <v>55.85324506577297</v>
+        <v>55.85324506577296</v>
       </c>
       <c r="S40" t="n">
-        <v>55.85324506577297</v>
+        <v>55.85324506577296</v>
       </c>
       <c r="T40" t="n">
-        <v>55.85324506577297</v>
+        <v>55.85324506577296</v>
       </c>
       <c r="U40" t="n">
-        <v>55.85324506577297</v>
+        <v>55.85324506577296</v>
       </c>
       <c r="V40" t="n">
-        <v>55.85324506577297</v>
+        <v>55.85324506577296</v>
       </c>
       <c r="W40" t="n">
-        <v>55.85324506577297</v>
+        <v>55.85324506577296</v>
       </c>
       <c r="X40" t="n">
-        <v>55.85324506577297</v>
+        <v>55.85324506577296</v>
       </c>
       <c r="Y40" t="n">
-        <v>55.85324506577297</v>
+        <v>55.85324506577296</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>55.85324506577295</v>
+        <v>55.853245065773</v>
       </c>
       <c r="C41" t="n">
-        <v>55.85324506577295</v>
+        <v>55.853245065773</v>
       </c>
       <c r="D41" t="n">
-        <v>55.85324506577295</v>
+        <v>55.853245065773</v>
       </c>
       <c r="E41" t="n">
-        <v>55.85324506577295</v>
+        <v>55.853245065773</v>
       </c>
       <c r="F41" t="n">
-        <v>55.85324506577295</v>
+        <v>55.853245065773</v>
       </c>
       <c r="G41" t="n">
-        <v>55.85324506577325</v>
+        <v>55.853245065773</v>
       </c>
       <c r="H41" t="n">
-        <v>55.85324506577295</v>
+        <v>55.853245065773</v>
       </c>
       <c r="I41" t="n">
-        <v>55.85324506577295</v>
+        <v>55.853245065773</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>55.85324506577295</v>
+        <v>55.8532450657719</v>
       </c>
       <c r="T41" t="n">
-        <v>55.85324506577295</v>
+        <v>55.853245065773</v>
       </c>
       <c r="U41" t="n">
-        <v>55.85324506577295</v>
+        <v>55.853245065773</v>
       </c>
       <c r="V41" t="n">
-        <v>55.85324506577295</v>
+        <v>55.853245065773</v>
       </c>
       <c r="W41" t="n">
-        <v>55.85324506577295</v>
+        <v>55.853245065773</v>
       </c>
       <c r="X41" t="n">
-        <v>55.85324506577295</v>
+        <v>55.853245065773</v>
       </c>
       <c r="Y41" t="n">
-        <v>55.85324506577295</v>
+        <v>55.853245065773</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>55.85324506577295</v>
+        <v>55.853245065773</v>
       </c>
       <c r="C43" t="n">
-        <v>55.85324506577295</v>
+        <v>55.853245065773</v>
       </c>
       <c r="D43" t="n">
-        <v>55.85324506577295</v>
+        <v>55.853245065773</v>
       </c>
       <c r="E43" t="n">
-        <v>55.85324506577295</v>
+        <v>55.853245065773</v>
       </c>
       <c r="F43" t="n">
-        <v>55.85324506577295</v>
+        <v>55.853245065773</v>
       </c>
       <c r="G43" t="n">
-        <v>55.85324506577295</v>
+        <v>55.853245065773</v>
       </c>
       <c r="H43" t="n">
-        <v>55.85324506577295</v>
+        <v>55.853245065773</v>
       </c>
       <c r="I43" t="n">
-        <v>55.85324506577295</v>
+        <v>55.853245065773</v>
       </c>
       <c r="J43" t="n">
-        <v>55.85324506577295</v>
+        <v>55.853245065773</v>
       </c>
       <c r="K43" t="n">
-        <v>55.85324506577295</v>
+        <v>55.853245065773</v>
       </c>
       <c r="L43" t="n">
-        <v>55.85324506577295</v>
+        <v>55.853245065773</v>
       </c>
       <c r="M43" t="n">
-        <v>55.85324506577295</v>
+        <v>55.853245065773</v>
       </c>
       <c r="N43" t="n">
-        <v>55.85324506577295</v>
+        <v>55.853245065773</v>
       </c>
       <c r="O43" t="n">
-        <v>55.85324506577295</v>
+        <v>55.853245065773</v>
       </c>
       <c r="P43" t="n">
-        <v>55.85324506577295</v>
+        <v>55.853245065773</v>
       </c>
       <c r="Q43" t="n">
-        <v>55.85324506577295</v>
+        <v>55.853245065773</v>
       </c>
       <c r="R43" t="n">
-        <v>55.85324506577295</v>
+        <v>55.853245065773</v>
       </c>
       <c r="S43" t="n">
-        <v>55.85324506577295</v>
+        <v>55.853245065773</v>
       </c>
       <c r="T43" t="n">
-        <v>55.85324506577295</v>
+        <v>55.853245065773</v>
       </c>
       <c r="U43" t="n">
-        <v>55.85324506577295</v>
+        <v>55.853245065773</v>
       </c>
       <c r="V43" t="n">
-        <v>55.85324506577295</v>
+        <v>55.853245065773</v>
       </c>
       <c r="W43" t="n">
-        <v>55.85324506577295</v>
+        <v>55.853245065773</v>
       </c>
       <c r="X43" t="n">
-        <v>55.85324506577295</v>
+        <v>55.853245065773</v>
       </c>
       <c r="Y43" t="n">
-        <v>55.85324506577295</v>
+        <v>55.853245065773</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>55.85324506577314</v>
+        <v>55.85324506577297</v>
       </c>
       <c r="C44" t="n">
-        <v>55.85324506577299</v>
+        <v>55.85324506577297</v>
       </c>
       <c r="D44" t="n">
-        <v>55.85324506577299</v>
+        <v>55.85324506577297</v>
       </c>
       <c r="E44" t="n">
-        <v>55.85324506577299</v>
+        <v>55.85324506577297</v>
       </c>
       <c r="F44" t="n">
-        <v>55.85324506577299</v>
+        <v>55.85324506577297</v>
       </c>
       <c r="G44" t="n">
-        <v>55.85324506577299</v>
+        <v>55.85324506577297</v>
       </c>
       <c r="H44" t="n">
-        <v>55.85324506577299</v>
+        <v>55.85324506577297</v>
       </c>
       <c r="I44" t="n">
-        <v>55.85324506577299</v>
+        <v>55.85324506577297</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>55.85324506577299</v>
+        <v>55.85324506577297</v>
       </c>
       <c r="T44" t="n">
-        <v>55.85324506577299</v>
+        <v>55.85324506577297</v>
       </c>
       <c r="U44" t="n">
-        <v>55.85324506577299</v>
+        <v>55.85324506577297</v>
       </c>
       <c r="V44" t="n">
-        <v>55.85324506577299</v>
+        <v>55.85324506577297</v>
       </c>
       <c r="W44" t="n">
-        <v>55.85324506577299</v>
+        <v>55.85324506577297</v>
       </c>
       <c r="X44" t="n">
-        <v>55.85324506577299</v>
+        <v>55.85324506577297</v>
       </c>
       <c r="Y44" t="n">
-        <v>55.85324506577299</v>
+        <v>55.85324506577297</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>55.85324506577299</v>
+        <v>55.85324506577297</v>
       </c>
       <c r="C46" t="n">
-        <v>55.85324506577299</v>
+        <v>55.85324506577297</v>
       </c>
       <c r="D46" t="n">
-        <v>55.85324506577299</v>
+        <v>55.85324506577297</v>
       </c>
       <c r="E46" t="n">
-        <v>55.85324506577299</v>
+        <v>55.85324506577297</v>
       </c>
       <c r="F46" t="n">
-        <v>55.85324506577299</v>
+        <v>55.85324506577297</v>
       </c>
       <c r="G46" t="n">
-        <v>55.85324506577299</v>
+        <v>55.85324506577297</v>
       </c>
       <c r="H46" t="n">
-        <v>55.85324506577299</v>
+        <v>55.85324506577297</v>
       </c>
       <c r="I46" t="n">
-        <v>55.85324506577299</v>
+        <v>55.85324506577297</v>
       </c>
       <c r="J46" t="n">
-        <v>55.85324506577299</v>
+        <v>55.85324506577297</v>
       </c>
       <c r="K46" t="n">
-        <v>55.85324506577299</v>
+        <v>55.85324506577297</v>
       </c>
       <c r="L46" t="n">
-        <v>55.85324506577299</v>
+        <v>55.85324506577297</v>
       </c>
       <c r="M46" t="n">
-        <v>55.85324506577299</v>
+        <v>55.85324506577297</v>
       </c>
       <c r="N46" t="n">
-        <v>55.85324506577299</v>
+        <v>55.85324506577297</v>
       </c>
       <c r="O46" t="n">
-        <v>55.85324506577299</v>
+        <v>55.85324506577297</v>
       </c>
       <c r="P46" t="n">
-        <v>55.85324506577299</v>
+        <v>55.85324506577297</v>
       </c>
       <c r="Q46" t="n">
-        <v>55.85324506577299</v>
+        <v>55.85324506577297</v>
       </c>
       <c r="R46" t="n">
-        <v>55.85324506577299</v>
+        <v>55.85324506577297</v>
       </c>
       <c r="S46" t="n">
-        <v>55.85324506577299</v>
+        <v>55.85324506577297</v>
       </c>
       <c r="T46" t="n">
-        <v>55.85324506577299</v>
+        <v>55.85324506577297</v>
       </c>
       <c r="U46" t="n">
-        <v>55.85324506577299</v>
+        <v>55.85324506577297</v>
       </c>
       <c r="V46" t="n">
-        <v>55.85324506577299</v>
+        <v>55.85324506577297</v>
       </c>
       <c r="W46" t="n">
-        <v>55.85324506577299</v>
+        <v>55.85324506577297</v>
       </c>
       <c r="X46" t="n">
-        <v>55.85324506577299</v>
+        <v>55.85324506577297</v>
       </c>
       <c r="Y46" t="n">
-        <v>55.85324506577299</v>
+        <v>55.85324506577297</v>
       </c>
     </row>
   </sheetData>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.298808680525519</v>
+        <v>3.29880868052552</v>
       </c>
       <c r="H11" t="n">
-        <v>33.78392439943198</v>
+        <v>33.78392439943199</v>
       </c>
       <c r="I11" t="n">
         <v>127.1773216559602</v>
       </c>
       <c r="J11" t="n">
-        <v>279.982263248753</v>
+        <v>279.9822632487531</v>
       </c>
       <c r="K11" t="n">
-        <v>419.6208346953983</v>
+        <v>419.6208346953984</v>
       </c>
       <c r="L11" t="n">
-        <v>520.5767508520313</v>
+        <v>520.5767508520314</v>
       </c>
       <c r="M11" t="n">
         <v>579.241939724327</v>
       </c>
       <c r="N11" t="n">
-        <v>588.6146798878701</v>
+        <v>588.6146798878702</v>
       </c>
       <c r="O11" t="n">
-        <v>555.8121510708945</v>
+        <v>555.8121510708946</v>
       </c>
       <c r="P11" t="n">
-        <v>474.3728117704207</v>
+        <v>474.3728117704208</v>
       </c>
       <c r="Q11" t="n">
-        <v>356.2342258991004</v>
+        <v>356.2342258991005</v>
       </c>
       <c r="R11" t="n">
-        <v>207.2187907780613</v>
+        <v>207.2187907780614</v>
       </c>
       <c r="S11" t="n">
-        <v>75.17160280747534</v>
+        <v>75.17160280747535</v>
       </c>
       <c r="T11" t="n">
         <v>14.44053499900047</v>
@@ -31835,16 +31835,16 @@
         <v>17.04636045034107</v>
       </c>
       <c r="I12" t="n">
-        <v>60.76926863541208</v>
+        <v>60.76926863541209</v>
       </c>
       <c r="J12" t="n">
         <v>166.7555179204346</v>
       </c>
       <c r="K12" t="n">
-        <v>285.0117405541358</v>
+        <v>285.0117405541359</v>
       </c>
       <c r="L12" t="n">
-        <v>383.2334578084172</v>
+        <v>383.2334578084173</v>
       </c>
       <c r="M12" t="n">
         <v>447.2153693079943</v>
@@ -31862,13 +31862,13 @@
         <v>225.3030311293036</v>
       </c>
       <c r="R12" t="n">
-        <v>109.5859575545087</v>
+        <v>109.5859575545088</v>
       </c>
       <c r="S12" t="n">
         <v>32.78443983069681</v>
       </c>
       <c r="T12" t="n">
-        <v>7.114262149801742</v>
+        <v>7.114262149801743</v>
       </c>
       <c r="U12" t="n">
         <v>0.1161196215963289</v>
@@ -31923,7 +31923,7 @@
         <v>171.9179551738958</v>
       </c>
       <c r="L13" t="n">
-        <v>219.9957933422451</v>
+        <v>219.9957933422452</v>
       </c>
       <c r="M13" t="n">
         <v>231.954718393074</v>
@@ -31935,22 +31935,22 @@
         <v>209.1533933524048</v>
       </c>
       <c r="P13" t="n">
-        <v>178.9668603782088</v>
+        <v>178.9668603782089</v>
       </c>
       <c r="Q13" t="n">
-        <v>123.9073775513892</v>
+        <v>123.9073775513893</v>
       </c>
       <c r="R13" t="n">
-        <v>66.53413194758126</v>
+        <v>66.53413194758127</v>
       </c>
       <c r="S13" t="n">
         <v>25.78769327608437</v>
       </c>
       <c r="T13" t="n">
-        <v>6.32249130921213</v>
+        <v>6.322491309212131</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08071265501121878</v>
+        <v>0.0807126550112188</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31996,37 +31996,37 @@
         <v>152.0287184297001</v>
       </c>
       <c r="J14" t="n">
-        <v>334.692884788866</v>
+        <v>334.6928847888661</v>
       </c>
       <c r="K14" t="n">
-        <v>501.6178741184608</v>
+        <v>501.6178741184609</v>
       </c>
       <c r="L14" t="n">
         <v>622.3013289305466</v>
       </c>
       <c r="M14" t="n">
-        <v>692.4301330644982</v>
+        <v>692.4301330644984</v>
       </c>
       <c r="N14" t="n">
-        <v>703.6343765308983</v>
+        <v>703.6343765308984</v>
       </c>
       <c r="O14" t="n">
-        <v>664.4219890363045</v>
+        <v>664.4219890363046</v>
       </c>
       <c r="P14" t="n">
-        <v>567.0687956964894</v>
+        <v>567.0687956964895</v>
       </c>
       <c r="Q14" t="n">
         <v>425.8450494086057</v>
       </c>
       <c r="R14" t="n">
-        <v>247.7108873369988</v>
+        <v>247.7108873369989</v>
       </c>
       <c r="S14" t="n">
-        <v>89.86069440935843</v>
+        <v>89.86069440935844</v>
       </c>
       <c r="T14" t="n">
-        <v>17.26232319372315</v>
+        <v>17.26232319372316</v>
       </c>
       <c r="U14" t="n">
         <v>0.315473639177122</v>
@@ -32069,28 +32069,28 @@
         <v>2.109915972397463</v>
       </c>
       <c r="H15" t="n">
-        <v>20.37734636499655</v>
+        <v>20.37734636499656</v>
       </c>
       <c r="I15" t="n">
-        <v>72.64403676894776</v>
+        <v>72.64403676894777</v>
       </c>
       <c r="J15" t="n">
-        <v>199.3407893044463</v>
+        <v>199.3407893044464</v>
       </c>
       <c r="K15" t="n">
-        <v>340.7051594550763</v>
+        <v>340.7051594550764</v>
       </c>
       <c r="L15" t="n">
-        <v>458.1201325155106</v>
+        <v>458.1201325155107</v>
       </c>
       <c r="M15" t="n">
-        <v>534.6045865149185</v>
+        <v>534.6045865149187</v>
       </c>
       <c r="N15" t="n">
         <v>548.7539791543736</v>
       </c>
       <c r="O15" t="n">
-        <v>502.0026831344087</v>
+        <v>502.0026831344088</v>
       </c>
       <c r="P15" t="n">
         <v>402.9014105536876</v>
@@ -32151,7 +32151,7 @@
         <v>15.72697505223615</v>
       </c>
       <c r="I16" t="n">
-        <v>53.19512625030384</v>
+        <v>53.19512625030385</v>
       </c>
       <c r="J16" t="n">
         <v>125.0600050932929</v>
@@ -32169,7 +32169,7 @@
         <v>270.6872914665553</v>
       </c>
       <c r="O16" t="n">
-        <v>250.0235256770629</v>
+        <v>250.023525677063</v>
       </c>
       <c r="P16" t="n">
         <v>213.9383191154903</v>
@@ -32178,13 +32178,13 @@
         <v>148.119802869271</v>
       </c>
       <c r="R16" t="n">
-        <v>79.53539735006126</v>
+        <v>79.53539735006127</v>
       </c>
       <c r="S16" t="n">
         <v>30.82680079257328</v>
       </c>
       <c r="T16" t="n">
-        <v>7.55795324596215</v>
+        <v>7.557953245962151</v>
       </c>
       <c r="U16" t="n">
         <v>0.0964845095229212</v>
@@ -32233,37 +32233,37 @@
         <v>152.0287184297001</v>
       </c>
       <c r="J17" t="n">
-        <v>334.692884788866</v>
+        <v>334.6928847888661</v>
       </c>
       <c r="K17" t="n">
-        <v>501.6178741184608</v>
+        <v>501.6178741184609</v>
       </c>
       <c r="L17" t="n">
         <v>622.3013289305466</v>
       </c>
       <c r="M17" t="n">
-        <v>692.4301330644982</v>
+        <v>692.4301330644984</v>
       </c>
       <c r="N17" t="n">
-        <v>703.6343765308983</v>
+        <v>703.6343765308984</v>
       </c>
       <c r="O17" t="n">
-        <v>664.4219890363045</v>
+        <v>664.4219890363046</v>
       </c>
       <c r="P17" t="n">
-        <v>567.0687956964894</v>
+        <v>567.0687956964895</v>
       </c>
       <c r="Q17" t="n">
         <v>425.8450494086057</v>
       </c>
       <c r="R17" t="n">
-        <v>247.7108873369988</v>
+        <v>247.7108873369989</v>
       </c>
       <c r="S17" t="n">
-        <v>89.86069440935843</v>
+        <v>89.86069440935844</v>
       </c>
       <c r="T17" t="n">
-        <v>17.26232319372315</v>
+        <v>17.26232319372316</v>
       </c>
       <c r="U17" t="n">
         <v>0.315473639177122</v>
@@ -32306,28 +32306,28 @@
         <v>2.109915972397463</v>
       </c>
       <c r="H18" t="n">
-        <v>20.37734636499655</v>
+        <v>20.37734636499656</v>
       </c>
       <c r="I18" t="n">
-        <v>72.64403676894776</v>
+        <v>72.64403676894777</v>
       </c>
       <c r="J18" t="n">
-        <v>199.3407893044463</v>
+        <v>199.3407893044464</v>
       </c>
       <c r="K18" t="n">
-        <v>340.7051594550763</v>
+        <v>340.7051594550764</v>
       </c>
       <c r="L18" t="n">
-        <v>458.1201325155106</v>
+        <v>458.1201325155107</v>
       </c>
       <c r="M18" t="n">
-        <v>534.6045865149185</v>
+        <v>534.6045865149187</v>
       </c>
       <c r="N18" t="n">
         <v>548.7539791543736</v>
       </c>
       <c r="O18" t="n">
-        <v>502.0026831344087</v>
+        <v>502.0026831344088</v>
       </c>
       <c r="P18" t="n">
         <v>402.9014105536876</v>
@@ -32388,7 +32388,7 @@
         <v>15.72697505223615</v>
       </c>
       <c r="I19" t="n">
-        <v>53.19512625030384</v>
+        <v>53.19512625030385</v>
       </c>
       <c r="J19" t="n">
         <v>125.0600050932929</v>
@@ -32406,7 +32406,7 @@
         <v>270.6872914665553</v>
       </c>
       <c r="O19" t="n">
-        <v>250.0235256770629</v>
+        <v>250.023525677063</v>
       </c>
       <c r="P19" t="n">
         <v>213.9383191154903</v>
@@ -32415,13 +32415,13 @@
         <v>148.119802869271</v>
       </c>
       <c r="R19" t="n">
-        <v>79.53539735006126</v>
+        <v>79.53539735006127</v>
       </c>
       <c r="S19" t="n">
         <v>30.82680079257328</v>
       </c>
       <c r="T19" t="n">
-        <v>7.55795324596215</v>
+        <v>7.557953245962151</v>
       </c>
       <c r="U19" t="n">
         <v>0.0964845095229212</v>
@@ -32470,37 +32470,37 @@
         <v>152.0287184297001</v>
       </c>
       <c r="J20" t="n">
-        <v>334.692884788866</v>
+        <v>334.6928847888661</v>
       </c>
       <c r="K20" t="n">
-        <v>501.6178741184608</v>
+        <v>501.6178741184609</v>
       </c>
       <c r="L20" t="n">
         <v>622.3013289305466</v>
       </c>
       <c r="M20" t="n">
-        <v>692.4301330644982</v>
+        <v>692.4301330644984</v>
       </c>
       <c r="N20" t="n">
-        <v>703.6343765308983</v>
+        <v>703.6343765308984</v>
       </c>
       <c r="O20" t="n">
-        <v>664.4219890363045</v>
+        <v>664.4219890363046</v>
       </c>
       <c r="P20" t="n">
-        <v>567.0687956964894</v>
+        <v>567.0687956964895</v>
       </c>
       <c r="Q20" t="n">
         <v>425.8450494086057</v>
       </c>
       <c r="R20" t="n">
-        <v>247.7108873369988</v>
+        <v>247.7108873369989</v>
       </c>
       <c r="S20" t="n">
-        <v>89.86069440935843</v>
+        <v>89.86069440935844</v>
       </c>
       <c r="T20" t="n">
-        <v>17.26232319372315</v>
+        <v>17.26232319372316</v>
       </c>
       <c r="U20" t="n">
         <v>0.315473639177122</v>
@@ -32543,28 +32543,28 @@
         <v>2.109915972397463</v>
       </c>
       <c r="H21" t="n">
-        <v>20.37734636499655</v>
+        <v>20.37734636499656</v>
       </c>
       <c r="I21" t="n">
-        <v>72.64403676894776</v>
+        <v>72.64403676894777</v>
       </c>
       <c r="J21" t="n">
-        <v>199.3407893044463</v>
+        <v>199.3407893044464</v>
       </c>
       <c r="K21" t="n">
-        <v>340.7051594550763</v>
+        <v>340.7051594550764</v>
       </c>
       <c r="L21" t="n">
-        <v>458.1201325155106</v>
+        <v>458.1201325155107</v>
       </c>
       <c r="M21" t="n">
-        <v>534.6045865149185</v>
+        <v>534.6045865149187</v>
       </c>
       <c r="N21" t="n">
         <v>548.7539791543736</v>
       </c>
       <c r="O21" t="n">
-        <v>502.0026831344087</v>
+        <v>502.0026831344088</v>
       </c>
       <c r="P21" t="n">
         <v>402.9014105536876</v>
@@ -32625,7 +32625,7 @@
         <v>15.72697505223615</v>
       </c>
       <c r="I22" t="n">
-        <v>53.19512625030384</v>
+        <v>53.19512625030385</v>
       </c>
       <c r="J22" t="n">
         <v>125.0600050932929</v>
@@ -32643,7 +32643,7 @@
         <v>270.6872914665553</v>
       </c>
       <c r="O22" t="n">
-        <v>250.0235256770629</v>
+        <v>250.023525677063</v>
       </c>
       <c r="P22" t="n">
         <v>213.9383191154903</v>
@@ -32652,13 +32652,13 @@
         <v>148.119802869271</v>
       </c>
       <c r="R22" t="n">
-        <v>79.53539735006126</v>
+        <v>79.53539735006127</v>
       </c>
       <c r="S22" t="n">
         <v>30.82680079257328</v>
       </c>
       <c r="T22" t="n">
-        <v>7.55795324596215</v>
+        <v>7.557953245962151</v>
       </c>
       <c r="U22" t="n">
         <v>0.0964845095229212</v>
@@ -32707,37 +32707,37 @@
         <v>152.0287184297001</v>
       </c>
       <c r="J23" t="n">
-        <v>334.692884788866</v>
+        <v>334.6928847888661</v>
       </c>
       <c r="K23" t="n">
-        <v>501.6178741184608</v>
+        <v>501.6178741184609</v>
       </c>
       <c r="L23" t="n">
         <v>622.3013289305466</v>
       </c>
       <c r="M23" t="n">
-        <v>692.4301330644982</v>
+        <v>692.4301330644984</v>
       </c>
       <c r="N23" t="n">
-        <v>703.6343765308983</v>
+        <v>703.6343765308984</v>
       </c>
       <c r="O23" t="n">
-        <v>664.4219890363045</v>
+        <v>664.4219890363046</v>
       </c>
       <c r="P23" t="n">
-        <v>567.0687956964894</v>
+        <v>567.0687956964895</v>
       </c>
       <c r="Q23" t="n">
         <v>425.8450494086057</v>
       </c>
       <c r="R23" t="n">
-        <v>247.7108873369988</v>
+        <v>247.7108873369989</v>
       </c>
       <c r="S23" t="n">
-        <v>89.86069440935843</v>
+        <v>89.86069440935844</v>
       </c>
       <c r="T23" t="n">
-        <v>17.26232319372315</v>
+        <v>17.26232319372316</v>
       </c>
       <c r="U23" t="n">
         <v>0.315473639177122</v>
@@ -32780,28 +32780,28 @@
         <v>2.109915972397463</v>
       </c>
       <c r="H24" t="n">
-        <v>20.37734636499655</v>
+        <v>20.37734636499656</v>
       </c>
       <c r="I24" t="n">
-        <v>72.64403676894776</v>
+        <v>72.64403676894777</v>
       </c>
       <c r="J24" t="n">
-        <v>199.3407893044463</v>
+        <v>199.3407893044464</v>
       </c>
       <c r="K24" t="n">
-        <v>340.7051594550763</v>
+        <v>340.7051594550764</v>
       </c>
       <c r="L24" t="n">
-        <v>458.1201325155106</v>
+        <v>458.1201325155107</v>
       </c>
       <c r="M24" t="n">
-        <v>534.6045865149185</v>
+        <v>534.6045865149187</v>
       </c>
       <c r="N24" t="n">
         <v>548.7539791543736</v>
       </c>
       <c r="O24" t="n">
-        <v>502.0026831344087</v>
+        <v>502.0026831344088</v>
       </c>
       <c r="P24" t="n">
         <v>402.9014105536876</v>
@@ -32862,7 +32862,7 @@
         <v>15.72697505223615</v>
       </c>
       <c r="I25" t="n">
-        <v>53.19512625030384</v>
+        <v>53.19512625030385</v>
       </c>
       <c r="J25" t="n">
         <v>125.0600050932929</v>
@@ -32880,7 +32880,7 @@
         <v>270.6872914665553</v>
       </c>
       <c r="O25" t="n">
-        <v>250.0235256770629</v>
+        <v>250.023525677063</v>
       </c>
       <c r="P25" t="n">
         <v>213.9383191154903</v>
@@ -32889,13 +32889,13 @@
         <v>148.119802869271</v>
       </c>
       <c r="R25" t="n">
-        <v>79.53539735006126</v>
+        <v>79.53539735006127</v>
       </c>
       <c r="S25" t="n">
         <v>30.82680079257328</v>
       </c>
       <c r="T25" t="n">
-        <v>7.55795324596215</v>
+        <v>7.557953245962151</v>
       </c>
       <c r="U25" t="n">
         <v>0.0964845095229212</v>
@@ -32944,37 +32944,37 @@
         <v>152.0287184297001</v>
       </c>
       <c r="J26" t="n">
-        <v>334.692884788866</v>
+        <v>334.6928847888661</v>
       </c>
       <c r="K26" t="n">
-        <v>501.6178741184608</v>
+        <v>501.6178741184609</v>
       </c>
       <c r="L26" t="n">
         <v>622.3013289305466</v>
       </c>
       <c r="M26" t="n">
-        <v>692.4301330644982</v>
+        <v>692.4301330644984</v>
       </c>
       <c r="N26" t="n">
-        <v>703.6343765308983</v>
+        <v>703.6343765308984</v>
       </c>
       <c r="O26" t="n">
-        <v>664.4219890363045</v>
+        <v>664.4219890363046</v>
       </c>
       <c r="P26" t="n">
-        <v>567.0687956964894</v>
+        <v>567.0687956964895</v>
       </c>
       <c r="Q26" t="n">
         <v>425.8450494086057</v>
       </c>
       <c r="R26" t="n">
-        <v>247.7108873369988</v>
+        <v>247.7108873369989</v>
       </c>
       <c r="S26" t="n">
-        <v>89.86069440935843</v>
+        <v>89.86069440935844</v>
       </c>
       <c r="T26" t="n">
-        <v>17.26232319372315</v>
+        <v>17.26232319372316</v>
       </c>
       <c r="U26" t="n">
         <v>0.315473639177122</v>
@@ -33017,28 +33017,28 @@
         <v>2.109915972397463</v>
       </c>
       <c r="H27" t="n">
-        <v>20.37734636499655</v>
+        <v>20.37734636499656</v>
       </c>
       <c r="I27" t="n">
-        <v>72.64403676894776</v>
+        <v>72.64403676894777</v>
       </c>
       <c r="J27" t="n">
-        <v>199.3407893044463</v>
+        <v>199.3407893044464</v>
       </c>
       <c r="K27" t="n">
-        <v>340.7051594550763</v>
+        <v>340.7051594550764</v>
       </c>
       <c r="L27" t="n">
-        <v>458.1201325155106</v>
+        <v>458.1201325155107</v>
       </c>
       <c r="M27" t="n">
-        <v>534.6045865149185</v>
+        <v>534.6045865149187</v>
       </c>
       <c r="N27" t="n">
         <v>548.7539791543736</v>
       </c>
       <c r="O27" t="n">
-        <v>502.0026831344087</v>
+        <v>502.0026831344088</v>
       </c>
       <c r="P27" t="n">
         <v>402.9014105536876</v>
@@ -33099,7 +33099,7 @@
         <v>15.72697505223615</v>
       </c>
       <c r="I28" t="n">
-        <v>53.19512625030384</v>
+        <v>53.19512625030385</v>
       </c>
       <c r="J28" t="n">
         <v>125.0600050932929</v>
@@ -33117,7 +33117,7 @@
         <v>270.6872914665553</v>
       </c>
       <c r="O28" t="n">
-        <v>250.0235256770629</v>
+        <v>250.023525677063</v>
       </c>
       <c r="P28" t="n">
         <v>213.9383191154903</v>
@@ -33126,13 +33126,13 @@
         <v>148.119802869271</v>
       </c>
       <c r="R28" t="n">
-        <v>79.53539735006126</v>
+        <v>79.53539735006127</v>
       </c>
       <c r="S28" t="n">
         <v>30.82680079257328</v>
       </c>
       <c r="T28" t="n">
-        <v>7.55795324596215</v>
+        <v>7.557953245962151</v>
       </c>
       <c r="U28" t="n">
         <v>0.0964845095229212</v>
@@ -33181,37 +33181,37 @@
         <v>152.0287184297001</v>
       </c>
       <c r="J29" t="n">
-        <v>334.692884788866</v>
+        <v>334.6928847888661</v>
       </c>
       <c r="K29" t="n">
-        <v>501.6178741184608</v>
+        <v>501.6178741184609</v>
       </c>
       <c r="L29" t="n">
         <v>622.3013289305466</v>
       </c>
       <c r="M29" t="n">
-        <v>692.4301330644982</v>
+        <v>692.4301330644984</v>
       </c>
       <c r="N29" t="n">
-        <v>703.6343765308983</v>
+        <v>703.6343765308984</v>
       </c>
       <c r="O29" t="n">
-        <v>664.4219890363045</v>
+        <v>664.4219890363046</v>
       </c>
       <c r="P29" t="n">
-        <v>567.0687956964894</v>
+        <v>567.0687956964895</v>
       </c>
       <c r="Q29" t="n">
         <v>425.8450494086057</v>
       </c>
       <c r="R29" t="n">
-        <v>247.7108873369988</v>
+        <v>247.7108873369989</v>
       </c>
       <c r="S29" t="n">
-        <v>89.86069440935843</v>
+        <v>89.86069440935844</v>
       </c>
       <c r="T29" t="n">
-        <v>17.26232319372315</v>
+        <v>17.26232319372316</v>
       </c>
       <c r="U29" t="n">
         <v>0.315473639177122</v>
@@ -33254,28 +33254,28 @@
         <v>2.109915972397463</v>
       </c>
       <c r="H30" t="n">
-        <v>20.37734636499655</v>
+        <v>20.37734636499656</v>
       </c>
       <c r="I30" t="n">
-        <v>72.64403676894776</v>
+        <v>72.64403676894777</v>
       </c>
       <c r="J30" t="n">
-        <v>199.3407893044463</v>
+        <v>199.3407893044464</v>
       </c>
       <c r="K30" t="n">
-        <v>340.7051594550763</v>
+        <v>340.7051594550764</v>
       </c>
       <c r="L30" t="n">
-        <v>458.1201325155106</v>
+        <v>458.1201325155107</v>
       </c>
       <c r="M30" t="n">
-        <v>534.6045865149185</v>
+        <v>534.6045865149187</v>
       </c>
       <c r="N30" t="n">
         <v>548.7539791543736</v>
       </c>
       <c r="O30" t="n">
-        <v>502.0026831344087</v>
+        <v>502.0026831344088</v>
       </c>
       <c r="P30" t="n">
         <v>402.9014105536876</v>
@@ -33336,7 +33336,7 @@
         <v>15.72697505223615</v>
       </c>
       <c r="I31" t="n">
-        <v>53.19512625030384</v>
+        <v>53.19512625030385</v>
       </c>
       <c r="J31" t="n">
         <v>125.0600050932929</v>
@@ -33354,7 +33354,7 @@
         <v>270.6872914665553</v>
       </c>
       <c r="O31" t="n">
-        <v>250.0235256770629</v>
+        <v>250.023525677063</v>
       </c>
       <c r="P31" t="n">
         <v>213.9383191154903</v>
@@ -33363,13 +33363,13 @@
         <v>148.119802869271</v>
       </c>
       <c r="R31" t="n">
-        <v>79.53539735006126</v>
+        <v>79.53539735006127</v>
       </c>
       <c r="S31" t="n">
         <v>30.82680079257328</v>
       </c>
       <c r="T31" t="n">
-        <v>7.55795324596215</v>
+        <v>7.557953245962151</v>
       </c>
       <c r="U31" t="n">
         <v>0.0964845095229212</v>
@@ -33418,37 +33418,37 @@
         <v>152.0287184297001</v>
       </c>
       <c r="J32" t="n">
-        <v>334.692884788866</v>
+        <v>334.6928847888661</v>
       </c>
       <c r="K32" t="n">
-        <v>501.6178741184608</v>
+        <v>501.6178741184609</v>
       </c>
       <c r="L32" t="n">
         <v>622.3013289305466</v>
       </c>
       <c r="M32" t="n">
-        <v>692.4301330644982</v>
+        <v>692.4301330644984</v>
       </c>
       <c r="N32" t="n">
-        <v>703.6343765308983</v>
+        <v>703.6343765308984</v>
       </c>
       <c r="O32" t="n">
-        <v>664.4219890363045</v>
+        <v>664.4219890363046</v>
       </c>
       <c r="P32" t="n">
-        <v>567.0687956964894</v>
+        <v>567.0687956964895</v>
       </c>
       <c r="Q32" t="n">
         <v>425.8450494086057</v>
       </c>
       <c r="R32" t="n">
-        <v>247.7108873369988</v>
+        <v>247.7108873369989</v>
       </c>
       <c r="S32" t="n">
-        <v>89.86069440935843</v>
+        <v>89.86069440935844</v>
       </c>
       <c r="T32" t="n">
-        <v>17.26232319372315</v>
+        <v>17.26232319372316</v>
       </c>
       <c r="U32" t="n">
         <v>0.315473639177122</v>
@@ -33491,28 +33491,28 @@
         <v>2.109915972397463</v>
       </c>
       <c r="H33" t="n">
-        <v>20.37734636499655</v>
+        <v>20.37734636499656</v>
       </c>
       <c r="I33" t="n">
-        <v>72.64403676894776</v>
+        <v>72.64403676894777</v>
       </c>
       <c r="J33" t="n">
-        <v>199.3407893044463</v>
+        <v>199.3407893044464</v>
       </c>
       <c r="K33" t="n">
-        <v>340.7051594550763</v>
+        <v>340.7051594550764</v>
       </c>
       <c r="L33" t="n">
-        <v>458.1201325155106</v>
+        <v>458.1201325155107</v>
       </c>
       <c r="M33" t="n">
-        <v>534.6045865149185</v>
+        <v>534.6045865149187</v>
       </c>
       <c r="N33" t="n">
         <v>548.7539791543736</v>
       </c>
       <c r="O33" t="n">
-        <v>502.0026831344087</v>
+        <v>502.0026831344088</v>
       </c>
       <c r="P33" t="n">
         <v>402.9014105536876</v>
@@ -33573,7 +33573,7 @@
         <v>15.72697505223615</v>
       </c>
       <c r="I34" t="n">
-        <v>53.19512625030384</v>
+        <v>53.19512625030385</v>
       </c>
       <c r="J34" t="n">
         <v>125.0600050932929</v>
@@ -33591,7 +33591,7 @@
         <v>270.6872914665553</v>
       </c>
       <c r="O34" t="n">
-        <v>250.0235256770629</v>
+        <v>250.023525677063</v>
       </c>
       <c r="P34" t="n">
         <v>213.9383191154903</v>
@@ -33600,13 +33600,13 @@
         <v>148.119802869271</v>
       </c>
       <c r="R34" t="n">
-        <v>79.53539735006126</v>
+        <v>79.53539735006127</v>
       </c>
       <c r="S34" t="n">
         <v>30.82680079257328</v>
       </c>
       <c r="T34" t="n">
-        <v>7.55795324596215</v>
+        <v>7.557953245962151</v>
       </c>
       <c r="U34" t="n">
         <v>0.0964845095229212</v>
@@ -33655,37 +33655,37 @@
         <v>152.0287184297001</v>
       </c>
       <c r="J35" t="n">
-        <v>334.692884788866</v>
+        <v>334.6928847888661</v>
       </c>
       <c r="K35" t="n">
-        <v>501.6178741184608</v>
+        <v>501.6178741184609</v>
       </c>
       <c r="L35" t="n">
         <v>622.3013289305466</v>
       </c>
       <c r="M35" t="n">
-        <v>692.4301330644982</v>
+        <v>692.4301330644984</v>
       </c>
       <c r="N35" t="n">
-        <v>703.6343765308983</v>
+        <v>703.6343765308984</v>
       </c>
       <c r="O35" t="n">
-        <v>664.4219890363045</v>
+        <v>664.4219890363046</v>
       </c>
       <c r="P35" t="n">
-        <v>567.0687956964894</v>
+        <v>567.0687956964895</v>
       </c>
       <c r="Q35" t="n">
         <v>425.8450494086057</v>
       </c>
       <c r="R35" t="n">
-        <v>247.7108873369988</v>
+        <v>247.7108873369989</v>
       </c>
       <c r="S35" t="n">
-        <v>89.86069440935843</v>
+        <v>89.86069440935844</v>
       </c>
       <c r="T35" t="n">
-        <v>17.26232319372315</v>
+        <v>17.26232319372316</v>
       </c>
       <c r="U35" t="n">
         <v>0.315473639177122</v>
@@ -33728,28 +33728,28 @@
         <v>2.109915972397463</v>
       </c>
       <c r="H36" t="n">
-        <v>20.37734636499655</v>
+        <v>20.37734636499656</v>
       </c>
       <c r="I36" t="n">
-        <v>72.64403676894776</v>
+        <v>72.64403676894777</v>
       </c>
       <c r="J36" t="n">
-        <v>199.3407893044463</v>
+        <v>199.3407893044464</v>
       </c>
       <c r="K36" t="n">
-        <v>340.7051594550763</v>
+        <v>340.7051594550764</v>
       </c>
       <c r="L36" t="n">
-        <v>458.1201325155106</v>
+        <v>458.1201325155107</v>
       </c>
       <c r="M36" t="n">
-        <v>534.6045865149185</v>
+        <v>534.6045865149187</v>
       </c>
       <c r="N36" t="n">
         <v>548.7539791543736</v>
       </c>
       <c r="O36" t="n">
-        <v>502.0026831344087</v>
+        <v>502.0026831344088</v>
       </c>
       <c r="P36" t="n">
         <v>402.9014105536876</v>
@@ -33810,7 +33810,7 @@
         <v>15.72697505223615</v>
       </c>
       <c r="I37" t="n">
-        <v>53.19512625030384</v>
+        <v>53.19512625030385</v>
       </c>
       <c r="J37" t="n">
         <v>125.0600050932929</v>
@@ -33828,7 +33828,7 @@
         <v>270.6872914665553</v>
       </c>
       <c r="O37" t="n">
-        <v>250.0235256770629</v>
+        <v>250.023525677063</v>
       </c>
       <c r="P37" t="n">
         <v>213.9383191154903</v>
@@ -33837,13 +33837,13 @@
         <v>148.119802869271</v>
       </c>
       <c r="R37" t="n">
-        <v>79.53539735006126</v>
+        <v>79.53539735006127</v>
       </c>
       <c r="S37" t="n">
         <v>30.82680079257328</v>
       </c>
       <c r="T37" t="n">
-        <v>7.55795324596215</v>
+        <v>7.557953245962151</v>
       </c>
       <c r="U37" t="n">
         <v>0.0964845095229212</v>
@@ -33892,37 +33892,37 @@
         <v>152.0287184297001</v>
       </c>
       <c r="J38" t="n">
-        <v>334.692884788866</v>
+        <v>334.6928847888661</v>
       </c>
       <c r="K38" t="n">
-        <v>501.6178741184608</v>
+        <v>501.6178741184609</v>
       </c>
       <c r="L38" t="n">
         <v>622.3013289305466</v>
       </c>
       <c r="M38" t="n">
-        <v>692.4301330644982</v>
+        <v>692.4301330644984</v>
       </c>
       <c r="N38" t="n">
-        <v>703.6343765308983</v>
+        <v>703.6343765308984</v>
       </c>
       <c r="O38" t="n">
-        <v>664.4219890363045</v>
+        <v>664.4219890363046</v>
       </c>
       <c r="P38" t="n">
-        <v>567.0687956964894</v>
+        <v>567.0687956964895</v>
       </c>
       <c r="Q38" t="n">
         <v>425.8450494086057</v>
       </c>
       <c r="R38" t="n">
-        <v>247.7108873369988</v>
+        <v>247.7108873369989</v>
       </c>
       <c r="S38" t="n">
-        <v>89.86069440935843</v>
+        <v>89.86069440935844</v>
       </c>
       <c r="T38" t="n">
-        <v>17.26232319372315</v>
+        <v>17.26232319372316</v>
       </c>
       <c r="U38" t="n">
         <v>0.315473639177122</v>
@@ -33965,28 +33965,28 @@
         <v>2.109915972397463</v>
       </c>
       <c r="H39" t="n">
-        <v>20.37734636499655</v>
+        <v>20.37734636499656</v>
       </c>
       <c r="I39" t="n">
-        <v>72.64403676894776</v>
+        <v>72.64403676894777</v>
       </c>
       <c r="J39" t="n">
-        <v>199.3407893044463</v>
+        <v>199.3407893044464</v>
       </c>
       <c r="K39" t="n">
-        <v>340.7051594550763</v>
+        <v>340.7051594550764</v>
       </c>
       <c r="L39" t="n">
-        <v>458.1201325155106</v>
+        <v>458.1201325155107</v>
       </c>
       <c r="M39" t="n">
-        <v>534.6045865149185</v>
+        <v>534.6045865149187</v>
       </c>
       <c r="N39" t="n">
         <v>548.7539791543736</v>
       </c>
       <c r="O39" t="n">
-        <v>502.0026831344087</v>
+        <v>502.0026831344088</v>
       </c>
       <c r="P39" t="n">
         <v>402.9014105536876</v>
@@ -34047,7 +34047,7 @@
         <v>15.72697505223615</v>
       </c>
       <c r="I40" t="n">
-        <v>53.19512625030384</v>
+        <v>53.19512625030385</v>
       </c>
       <c r="J40" t="n">
         <v>125.0600050932929</v>
@@ -34065,7 +34065,7 @@
         <v>270.6872914665553</v>
       </c>
       <c r="O40" t="n">
-        <v>250.0235256770629</v>
+        <v>250.023525677063</v>
       </c>
       <c r="P40" t="n">
         <v>213.9383191154903</v>
@@ -34074,13 +34074,13 @@
         <v>148.119802869271</v>
       </c>
       <c r="R40" t="n">
-        <v>79.53539735006126</v>
+        <v>79.53539735006127</v>
       </c>
       <c r="S40" t="n">
         <v>30.82680079257328</v>
       </c>
       <c r="T40" t="n">
-        <v>7.55795324596215</v>
+        <v>7.557953245962151</v>
       </c>
       <c r="U40" t="n">
         <v>0.0964845095229212</v>
@@ -34129,37 +34129,37 @@
         <v>152.0287184297001</v>
       </c>
       <c r="J41" t="n">
-        <v>334.692884788866</v>
+        <v>334.6928847888661</v>
       </c>
       <c r="K41" t="n">
-        <v>501.6178741184608</v>
+        <v>501.6178741184609</v>
       </c>
       <c r="L41" t="n">
         <v>622.3013289305466</v>
       </c>
       <c r="M41" t="n">
-        <v>692.4301330644982</v>
+        <v>692.4301330644984</v>
       </c>
       <c r="N41" t="n">
-        <v>703.6343765308983</v>
+        <v>703.6343765308984</v>
       </c>
       <c r="O41" t="n">
-        <v>664.4219890363045</v>
+        <v>664.4219890363046</v>
       </c>
       <c r="P41" t="n">
-        <v>567.0687956964894</v>
+        <v>567.0687956964895</v>
       </c>
       <c r="Q41" t="n">
         <v>425.8450494086057</v>
       </c>
       <c r="R41" t="n">
-        <v>247.7108873369988</v>
+        <v>247.7108873369989</v>
       </c>
       <c r="S41" t="n">
-        <v>89.86069440935843</v>
+        <v>89.86069440935844</v>
       </c>
       <c r="T41" t="n">
-        <v>17.26232319372315</v>
+        <v>17.26232319372316</v>
       </c>
       <c r="U41" t="n">
         <v>0.315473639177122</v>
@@ -34202,28 +34202,28 @@
         <v>2.109915972397463</v>
       </c>
       <c r="H42" t="n">
-        <v>20.37734636499655</v>
+        <v>20.37734636499656</v>
       </c>
       <c r="I42" t="n">
-        <v>72.64403676894776</v>
+        <v>72.64403676894777</v>
       </c>
       <c r="J42" t="n">
-        <v>199.3407893044463</v>
+        <v>199.3407893044464</v>
       </c>
       <c r="K42" t="n">
-        <v>340.7051594550763</v>
+        <v>340.7051594550764</v>
       </c>
       <c r="L42" t="n">
-        <v>458.1201325155106</v>
+        <v>458.1201325155107</v>
       </c>
       <c r="M42" t="n">
-        <v>534.6045865149185</v>
+        <v>534.6045865149187</v>
       </c>
       <c r="N42" t="n">
         <v>548.7539791543736</v>
       </c>
       <c r="O42" t="n">
-        <v>502.0026831344087</v>
+        <v>502.0026831344088</v>
       </c>
       <c r="P42" t="n">
         <v>402.9014105536876</v>
@@ -34284,7 +34284,7 @@
         <v>15.72697505223615</v>
       </c>
       <c r="I43" t="n">
-        <v>53.19512625030384</v>
+        <v>53.19512625030385</v>
       </c>
       <c r="J43" t="n">
         <v>125.0600050932929</v>
@@ -34302,7 +34302,7 @@
         <v>270.6872914665553</v>
       </c>
       <c r="O43" t="n">
-        <v>250.0235256770629</v>
+        <v>250.023525677063</v>
       </c>
       <c r="P43" t="n">
         <v>213.9383191154903</v>
@@ -34311,13 +34311,13 @@
         <v>148.119802869271</v>
       </c>
       <c r="R43" t="n">
-        <v>79.53539735006126</v>
+        <v>79.53539735006127</v>
       </c>
       <c r="S43" t="n">
         <v>30.82680079257328</v>
       </c>
       <c r="T43" t="n">
-        <v>7.55795324596215</v>
+        <v>7.557953245962151</v>
       </c>
       <c r="U43" t="n">
         <v>0.0964845095229212</v>
@@ -34366,37 +34366,37 @@
         <v>152.0287184297001</v>
       </c>
       <c r="J44" t="n">
-        <v>334.692884788866</v>
+        <v>334.6928847888661</v>
       </c>
       <c r="K44" t="n">
-        <v>501.6178741184608</v>
+        <v>501.6178741184609</v>
       </c>
       <c r="L44" t="n">
         <v>622.3013289305466</v>
       </c>
       <c r="M44" t="n">
-        <v>692.4301330644982</v>
+        <v>692.4301330644984</v>
       </c>
       <c r="N44" t="n">
-        <v>703.6343765308983</v>
+        <v>703.6343765308984</v>
       </c>
       <c r="O44" t="n">
-        <v>664.4219890363045</v>
+        <v>664.4219890363046</v>
       </c>
       <c r="P44" t="n">
-        <v>567.0687956964894</v>
+        <v>567.0687956964895</v>
       </c>
       <c r="Q44" t="n">
         <v>425.8450494086057</v>
       </c>
       <c r="R44" t="n">
-        <v>247.7108873369988</v>
+        <v>247.7108873369989</v>
       </c>
       <c r="S44" t="n">
-        <v>89.86069440935843</v>
+        <v>89.86069440935844</v>
       </c>
       <c r="T44" t="n">
-        <v>17.26232319372315</v>
+        <v>17.26232319372316</v>
       </c>
       <c r="U44" t="n">
         <v>0.315473639177122</v>
@@ -34439,28 +34439,28 @@
         <v>2.109915972397463</v>
       </c>
       <c r="H45" t="n">
-        <v>20.37734636499655</v>
+        <v>20.37734636499656</v>
       </c>
       <c r="I45" t="n">
-        <v>72.64403676894776</v>
+        <v>72.64403676894777</v>
       </c>
       <c r="J45" t="n">
-        <v>199.3407893044463</v>
+        <v>199.3407893044464</v>
       </c>
       <c r="K45" t="n">
-        <v>340.7051594550763</v>
+        <v>340.7051594550764</v>
       </c>
       <c r="L45" t="n">
-        <v>458.1201325155106</v>
+        <v>458.1201325155107</v>
       </c>
       <c r="M45" t="n">
-        <v>534.6045865149185</v>
+        <v>534.6045865149187</v>
       </c>
       <c r="N45" t="n">
         <v>548.7539791543736</v>
       </c>
       <c r="O45" t="n">
-        <v>502.0026831344087</v>
+        <v>502.0026831344088</v>
       </c>
       <c r="P45" t="n">
         <v>402.9014105536876</v>
@@ -34521,7 +34521,7 @@
         <v>15.72697505223615</v>
       </c>
       <c r="I46" t="n">
-        <v>53.19512625030384</v>
+        <v>53.19512625030385</v>
       </c>
       <c r="J46" t="n">
         <v>125.0600050932929</v>
@@ -34539,7 +34539,7 @@
         <v>270.6872914665553</v>
       </c>
       <c r="O46" t="n">
-        <v>250.0235256770629</v>
+        <v>250.023525677063</v>
       </c>
       <c r="P46" t="n">
         <v>213.9383191154903</v>
@@ -34548,13 +34548,13 @@
         <v>148.119802869271</v>
       </c>
       <c r="R46" t="n">
-        <v>79.53539735006126</v>
+        <v>79.53539735006127</v>
       </c>
       <c r="S46" t="n">
         <v>30.82680079257328</v>
       </c>
       <c r="T46" t="n">
-        <v>7.55795324596215</v>
+        <v>7.557953245962151</v>
       </c>
       <c r="U46" t="n">
         <v>0.0964845095229212</v>
@@ -34781,22 +34781,22 @@
         <v>127.8998415301111</v>
       </c>
       <c r="L3" t="n">
-        <v>165.3469522521512</v>
+        <v>234.0017634719808</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="N3" t="n">
-        <v>244.5627323611424</v>
+        <v>104.8036895137028</v>
       </c>
       <c r="O3" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>185.9973484203803</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>71.10423162760989</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>3.930118828988642</v>
       </c>
       <c r="K6" t="n">
         <v>134.6170405889698</v>
       </c>
       <c r="L6" t="n">
-        <v>243.0338665604671</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>263.2420339516666</v>
       </c>
       <c r="N6" t="n">
-        <v>138.3956538464126</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O6" t="n">
         <v>263.0434990833253</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>37.84316067718645</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>76.41420694903812</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,16 +35255,16 @@
         <v>138.7877391315785</v>
       </c>
       <c r="L9" t="n">
-        <v>248.6418854471727</v>
+        <v>124.3809279722199</v>
       </c>
       <c r="M9" t="n">
-        <v>144.9277431142228</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>276.1565137023555</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P9" t="n">
         <v>198.8728484821096</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>268.0329738941405</v>
+        <v>268.0329738941406</v>
       </c>
       <c r="K11" t="n">
         <v>523.6763962215825</v>
       </c>
       <c r="L11" t="n">
-        <v>702.4715504324945</v>
+        <v>702.4715504324946</v>
       </c>
       <c r="M11" t="n">
         <v>798.4092399898868</v>
       </c>
       <c r="N11" t="n">
-        <v>796.5485407032634</v>
+        <v>796.5485407032635</v>
       </c>
       <c r="O11" t="n">
-        <v>706.5141209119531</v>
+        <v>706.5141209119532</v>
       </c>
       <c r="P11" t="n">
-        <v>564.9385241866338</v>
+        <v>564.9385241866339</v>
       </c>
       <c r="Q11" t="n">
-        <v>346.2435266845556</v>
+        <v>346.2435266845557</v>
       </c>
       <c r="R11" t="n">
-        <v>57.34967283691165</v>
+        <v>57.34967283691168</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>39.91789125376792</v>
+        <v>39.91789125376795</v>
       </c>
       <c r="K12" t="n">
-        <v>357.8850984947941</v>
+        <v>147.1703015797769</v>
       </c>
       <c r="L12" t="n">
-        <v>244.679078028543</v>
+        <v>244.6790780285431</v>
       </c>
       <c r="M12" t="n">
-        <v>305.0813353859759</v>
+        <v>770.7863991359759</v>
       </c>
       <c r="N12" t="n">
-        <v>327.7101173193802</v>
+        <v>785.0449384010639</v>
       </c>
       <c r="O12" t="n">
-        <v>671.208815681355</v>
+        <v>277.3464964046255</v>
       </c>
       <c r="P12" t="n">
-        <v>521.5294335630044</v>
+        <v>203.0666649230674</v>
       </c>
       <c r="Q12" t="n">
-        <v>85.32125704328206</v>
+        <v>85.32125704328209</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.25787288703519</v>
+        <v>11.25787288703521</v>
       </c>
       <c r="K13" t="n">
-        <v>149.6484633480129</v>
+        <v>149.648463348013</v>
       </c>
       <c r="L13" t="n">
         <v>247.5858186025613</v>
       </c>
       <c r="M13" t="n">
-        <v>271.5385953549145</v>
+        <v>271.5385953549146</v>
       </c>
       <c r="N13" t="n">
-        <v>270.5715260132028</v>
+        <v>270.5715260132029</v>
       </c>
       <c r="O13" t="n">
         <v>233.7385212664445</v>
       </c>
       <c r="P13" t="n">
-        <v>176.2454196431023</v>
+        <v>176.2454196431024</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.74533429969486</v>
+        <v>37.74533429969487</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>153.6469802621797</v>
+        <v>153.6469802621798</v>
       </c>
       <c r="K14" t="n">
         <v>605.673435644645</v>
@@ -35653,22 +35653,22 @@
         <v>804.1961285110098</v>
       </c>
       <c r="M14" t="n">
-        <v>911.597433330058</v>
+        <v>739.9921019293045</v>
       </c>
       <c r="N14" t="n">
-        <v>514.9309721934588</v>
+        <v>474.2213129343075</v>
       </c>
       <c r="O14" t="n">
-        <v>815.1239588773631</v>
+        <v>815.1239588773632</v>
       </c>
       <c r="P14" t="n">
-        <v>657.6345081127024</v>
+        <v>657.6345081127026</v>
       </c>
       <c r="Q14" t="n">
-        <v>203.5393595341562</v>
+        <v>415.8543501940609</v>
       </c>
       <c r="R14" t="n">
-        <v>97.84176939584916</v>
+        <v>97.84176939584918</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>72.50316263777964</v>
+        <v>72.50316263777967</v>
       </c>
       <c r="K15" t="n">
-        <v>467.3289574932959</v>
+        <v>467.328957493296</v>
       </c>
       <c r="L15" t="n">
         <v>319.5657527356365</v>
       </c>
       <c r="M15" t="n">
-        <v>392.4705525929002</v>
+        <v>392.4705525929003</v>
       </c>
       <c r="N15" t="n">
         <v>417.4122670710403</v>
       </c>
       <c r="O15" t="n">
-        <v>461.9338333438948</v>
+        <v>359.4064386899643</v>
       </c>
       <c r="P15" t="n">
         <v>268.9270031393573</v>
       </c>
       <c r="Q15" t="n">
-        <v>129.3471489870302</v>
+        <v>231.8745436409603</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>31.7008249766201</v>
+        <v>31.70082497662011</v>
       </c>
       <c r="K16" t="n">
         <v>183.242513457939</v>
@@ -35814,13 +35814,13 @@
         <v>316.8642765791286</v>
       </c>
       <c r="N16" t="n">
-        <v>314.8194638457838</v>
+        <v>314.819463845784</v>
       </c>
       <c r="O16" t="n">
-        <v>274.6086535911026</v>
+        <v>274.6086535911027</v>
       </c>
       <c r="P16" t="n">
-        <v>211.2168783803837</v>
+        <v>211.2168783803838</v>
       </c>
       <c r="Q16" t="n">
         <v>61.95775961757666</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>316.0069661137572</v>
+        <v>322.7435954342536</v>
       </c>
       <c r="K17" t="n">
-        <v>605.673435644645</v>
+        <v>477.2864797317225</v>
       </c>
       <c r="L17" t="n">
         <v>804.1961285110098</v>
       </c>
       <c r="M17" t="n">
-        <v>462.0838998372255</v>
+        <v>911.5974333300582</v>
       </c>
       <c r="N17" t="n">
-        <v>911.5682373462915</v>
+        <v>474.2213129343075</v>
       </c>
       <c r="O17" t="n">
-        <v>815.1239588773631</v>
+        <v>815.1239588773632</v>
       </c>
       <c r="P17" t="n">
-        <v>335.8357999412198</v>
+        <v>657.6345081127026</v>
       </c>
       <c r="Q17" t="n">
-        <v>415.8543501940609</v>
+        <v>203.5393595341563</v>
       </c>
       <c r="R17" t="n">
-        <v>97.84176939584916</v>
+        <v>97.84176939584918</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>72.50316263777964</v>
+        <v>72.50316263777967</v>
       </c>
       <c r="K18" t="n">
-        <v>202.8637204807173</v>
+        <v>467.328957493296</v>
       </c>
       <c r="L18" t="n">
         <v>319.5657527356365</v>
       </c>
       <c r="M18" t="n">
-        <v>759.4631842594093</v>
+        <v>392.4705525929003</v>
       </c>
       <c r="N18" t="n">
         <v>417.4122670710403</v>
@@ -35981,7 +35981,7 @@
         <v>268.9270031393573</v>
       </c>
       <c r="Q18" t="n">
-        <v>129.3471489870302</v>
+        <v>231.8745436409603</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>31.7008249766201</v>
+        <v>31.70082497662011</v>
       </c>
       <c r="K19" t="n">
         <v>183.242513457939</v>
@@ -36051,13 +36051,13 @@
         <v>316.8642765791286</v>
       </c>
       <c r="N19" t="n">
-        <v>314.8194638457838</v>
+        <v>314.819463845784</v>
       </c>
       <c r="O19" t="n">
-        <v>274.6086535911026</v>
+        <v>274.6086535911027</v>
       </c>
       <c r="P19" t="n">
-        <v>211.2168783803837</v>
+        <v>211.2168783803838</v>
       </c>
       <c r="Q19" t="n">
         <v>61.95775961757666</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>322.7435954342535</v>
+        <v>322.7435954342536</v>
       </c>
       <c r="K20" t="n">
-        <v>281.5280230734803</v>
+        <v>605.673435644645</v>
       </c>
       <c r="L20" t="n">
         <v>804.1961285110098</v>
       </c>
       <c r="M20" t="n">
-        <v>911.597433330058</v>
+        <v>462.0838998372257</v>
       </c>
       <c r="N20" t="n">
-        <v>474.2213129343074</v>
+        <v>911.5682373462917</v>
       </c>
       <c r="O20" t="n">
-        <v>815.1239588773631</v>
+        <v>815.1239588773632</v>
       </c>
       <c r="P20" t="n">
-        <v>657.6345081127024</v>
+        <v>335.8357999412199</v>
       </c>
       <c r="Q20" t="n">
-        <v>399.2978161923994</v>
+        <v>415.8543501940609</v>
       </c>
       <c r="R20" t="n">
-        <v>97.84176939584916</v>
+        <v>91.10514007535231</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>72.50316263777964</v>
+        <v>72.50316263777967</v>
       </c>
       <c r="K21" t="n">
-        <v>202.8637204807173</v>
+        <v>202.8637204807174</v>
       </c>
       <c r="L21" t="n">
-        <v>368.0956157622084</v>
+        <v>319.5657527356365</v>
       </c>
       <c r="M21" t="n">
-        <v>392.4705525929002</v>
+        <v>392.4705525929003</v>
       </c>
       <c r="N21" t="n">
         <v>417.4122670710403</v>
       </c>
       <c r="O21" t="n">
-        <v>359.4064386899643</v>
+        <v>726.3990703564734</v>
       </c>
       <c r="P21" t="n">
-        <v>587.3897717792945</v>
+        <v>268.9270031393573</v>
       </c>
       <c r="Q21" t="n">
         <v>129.3471489870302</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>31.7008249766201</v>
+        <v>31.70082497662011</v>
       </c>
       <c r="K22" t="n">
         <v>183.242513457939</v>
@@ -36288,13 +36288,13 @@
         <v>316.8642765791286</v>
       </c>
       <c r="N22" t="n">
-        <v>314.8194638457838</v>
+        <v>314.819463845784</v>
       </c>
       <c r="O22" t="n">
-        <v>274.6086535911026</v>
+        <v>274.6086535911027</v>
       </c>
       <c r="P22" t="n">
-        <v>211.2168783803837</v>
+        <v>211.2168783803838</v>
       </c>
       <c r="Q22" t="n">
         <v>61.95775961757666</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>322.7435954342535</v>
+        <v>194.3566395213311</v>
       </c>
       <c r="K23" t="n">
         <v>605.673435644645</v>
       </c>
       <c r="L23" t="n">
-        <v>386.5349139605593</v>
+        <v>804.1961285110098</v>
       </c>
       <c r="M23" t="n">
-        <v>763.524767555602</v>
+        <v>911.5974333300582</v>
       </c>
       <c r="N23" t="n">
-        <v>911.5682373462915</v>
+        <v>474.2213129343075</v>
       </c>
       <c r="O23" t="n">
-        <v>815.1239588773631</v>
+        <v>815.1239588773632</v>
       </c>
       <c r="P23" t="n">
-        <v>657.6345081127024</v>
+        <v>657.6345081127026</v>
       </c>
       <c r="Q23" t="n">
-        <v>203.5393595341562</v>
+        <v>203.5393595341563</v>
       </c>
       <c r="R23" t="n">
-        <v>97.84176939584916</v>
+        <v>97.84176939584918</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>72.50316263777964</v>
+        <v>72.50316263777967</v>
       </c>
       <c r="K24" t="n">
-        <v>202.8637204807173</v>
+        <v>467.328957493296</v>
       </c>
       <c r="L24" t="n">
         <v>319.5657527356365</v>
       </c>
       <c r="M24" t="n">
-        <v>392.4705525929002</v>
+        <v>392.4705525929003</v>
       </c>
       <c r="N24" t="n">
         <v>417.4122670710403</v>
       </c>
       <c r="O24" t="n">
-        <v>726.3990703564734</v>
+        <v>461.9338333438946</v>
       </c>
       <c r="P24" t="n">
         <v>268.9270031393573</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>31.7008249766201</v>
+        <v>31.70082497662011</v>
       </c>
       <c r="K25" t="n">
         <v>183.242513457939</v>
@@ -36525,13 +36525,13 @@
         <v>316.8642765791286</v>
       </c>
       <c r="N25" t="n">
-        <v>314.8194638457838</v>
+        <v>314.819463845784</v>
       </c>
       <c r="O25" t="n">
-        <v>274.6086535911026</v>
+        <v>274.6086535911027</v>
       </c>
       <c r="P25" t="n">
-        <v>211.2168783803837</v>
+        <v>211.2168783803838</v>
       </c>
       <c r="Q25" t="n">
         <v>61.95775961757666</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>322.7435954342535</v>
+        <v>322.7435954342536</v>
       </c>
       <c r="K26" t="n">
         <v>605.673435644645</v>
       </c>
       <c r="L26" t="n">
-        <v>386.5349139605593</v>
+        <v>529.2106018111645</v>
       </c>
       <c r="M26" t="n">
-        <v>911.597433330058</v>
+        <v>911.5974333300582</v>
       </c>
       <c r="N26" t="n">
-        <v>911.5682373462915</v>
+        <v>474.2213129343075</v>
       </c>
       <c r="O26" t="n">
-        <v>815.1239588773631</v>
+        <v>815.1239588773632</v>
       </c>
       <c r="P26" t="n">
-        <v>335.8357999412198</v>
+        <v>657.6345081127026</v>
       </c>
       <c r="Q26" t="n">
         <v>415.8543501940609</v>
       </c>
       <c r="R26" t="n">
-        <v>59.2528211329712</v>
+        <v>32.12534952286674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>72.50316263777964</v>
+        <v>72.50316263777967</v>
       </c>
       <c r="K27" t="n">
-        <v>202.8637204807173</v>
+        <v>467.328957493296</v>
       </c>
       <c r="L27" t="n">
-        <v>319.5657527356365</v>
+        <v>391.2511109051112</v>
       </c>
       <c r="M27" t="n">
-        <v>392.4705525929002</v>
+        <v>392.4705525929003</v>
       </c>
       <c r="N27" t="n">
-        <v>753.5628622530938</v>
+        <v>417.4122670710403</v>
       </c>
       <c r="O27" t="n">
         <v>359.4064386899643</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>31.7008249766201</v>
+        <v>31.70082497662011</v>
       </c>
       <c r="K28" t="n">
         <v>183.242513457939</v>
@@ -36762,13 +36762,13 @@
         <v>316.8642765791286</v>
       </c>
       <c r="N28" t="n">
-        <v>314.8194638457838</v>
+        <v>314.819463845784</v>
       </c>
       <c r="O28" t="n">
-        <v>274.6086535911026</v>
+        <v>274.6086535911027</v>
       </c>
       <c r="P28" t="n">
-        <v>211.2168783803837</v>
+        <v>211.2168783803838</v>
       </c>
       <c r="Q28" t="n">
         <v>61.95775961757666</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>153.6469802621797</v>
+        <v>153.6469802621798</v>
       </c>
       <c r="K29" t="n">
         <v>605.673435644645</v>
@@ -36838,22 +36838,22 @@
         <v>804.1961285110098</v>
       </c>
       <c r="M29" t="n">
-        <v>911.597433330058</v>
+        <v>911.5974333300582</v>
       </c>
       <c r="N29" t="n">
-        <v>474.2213129343074</v>
+        <v>911.5682373462917</v>
       </c>
       <c r="O29" t="n">
-        <v>709.2350473495916</v>
+        <v>527.970411236108</v>
       </c>
       <c r="P29" t="n">
-        <v>657.6345081127024</v>
+        <v>335.8357999412199</v>
       </c>
       <c r="Q29" t="n">
         <v>415.8543501940609</v>
       </c>
       <c r="R29" t="n">
-        <v>32.12534952286671</v>
+        <v>97.84176939584918</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>72.50316263777964</v>
+        <v>72.50316263777967</v>
       </c>
       <c r="K30" t="n">
-        <v>202.8637204807173</v>
+        <v>467.328957493296</v>
       </c>
       <c r="L30" t="n">
-        <v>655.7163479176901</v>
+        <v>319.5657527356365</v>
       </c>
       <c r="M30" t="n">
-        <v>392.4705525929002</v>
+        <v>392.4705525929003</v>
       </c>
       <c r="N30" t="n">
         <v>417.4122670710403</v>
@@ -36929,10 +36929,10 @@
         <v>268.9270031393573</v>
       </c>
       <c r="Q30" t="n">
-        <v>129.3471489870302</v>
+        <v>231.8745436409603</v>
       </c>
       <c r="R30" t="n">
-        <v>30.84203648445556</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>31.7008249766201</v>
+        <v>31.70082497662011</v>
       </c>
       <c r="K31" t="n">
         <v>183.242513457939</v>
@@ -36999,13 +36999,13 @@
         <v>316.8642765791286</v>
       </c>
       <c r="N31" t="n">
-        <v>314.8194638457838</v>
+        <v>314.819463845784</v>
       </c>
       <c r="O31" t="n">
-        <v>274.6086535911026</v>
+        <v>274.6086535911027</v>
       </c>
       <c r="P31" t="n">
-        <v>211.2168783803837</v>
+        <v>211.2168783803838</v>
       </c>
       <c r="Q31" t="n">
         <v>61.95775961757666</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>153.6469802621797</v>
+        <v>153.6469802621798</v>
       </c>
       <c r="K32" t="n">
         <v>605.673435644645</v>
@@ -37075,22 +37075,22 @@
         <v>804.1961285110098</v>
       </c>
       <c r="M32" t="n">
-        <v>911.597433330058</v>
+        <v>580.6765880502071</v>
       </c>
       <c r="N32" t="n">
-        <v>911.5682373462915</v>
+        <v>911.5682373462917</v>
       </c>
       <c r="O32" t="n">
-        <v>484.2031135975122</v>
+        <v>815.1239588773632</v>
       </c>
       <c r="P32" t="n">
-        <v>657.6345081127024</v>
+        <v>657.6345081127026</v>
       </c>
       <c r="Q32" t="n">
-        <v>203.5393595341562</v>
+        <v>203.5393595341563</v>
       </c>
       <c r="R32" t="n">
-        <v>32.12534952286671</v>
+        <v>32.12534952286674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>72.50316263777964</v>
+        <v>175.0305572917098</v>
       </c>
       <c r="K33" t="n">
-        <v>202.8637204807173</v>
+        <v>467.328957493296</v>
       </c>
       <c r="L33" t="n">
         <v>319.5657527356365</v>
       </c>
       <c r="M33" t="n">
-        <v>759.4631842594093</v>
+        <v>392.4705525929003</v>
       </c>
       <c r="N33" t="n">
         <v>417.4122670710403</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.55407004239309</v>
+        <v>87.55407004239305</v>
       </c>
       <c r="K34" t="n">
         <v>239.095758523712</v>
@@ -37245,7 +37245,7 @@
         <v>267.0701234461567</v>
       </c>
       <c r="Q34" t="n">
-        <v>117.8110046833497</v>
+        <v>117.8110046833496</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>322.7435954342535</v>
+        <v>153.6469802621798</v>
       </c>
       <c r="K35" t="n">
-        <v>281.5280230734803</v>
+        <v>605.673435644645</v>
       </c>
       <c r="L35" t="n">
-        <v>386.5349139605593</v>
+        <v>804.1961285110098</v>
       </c>
       <c r="M35" t="n">
-        <v>462.0838998372255</v>
+        <v>462.0838998372257</v>
       </c>
       <c r="N35" t="n">
-        <v>911.5682373462915</v>
+        <v>474.2213129343075</v>
       </c>
       <c r="O35" t="n">
-        <v>815.1239588773631</v>
+        <v>625.7379063115353</v>
       </c>
       <c r="P35" t="n">
-        <v>335.8357999412198</v>
+        <v>335.8357999412199</v>
       </c>
       <c r="Q35" t="n">
-        <v>361.8313851657902</v>
+        <v>415.8543501940609</v>
       </c>
       <c r="R35" t="n">
-        <v>32.12534952286671</v>
+        <v>32.12534952286674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>72.50316263777964</v>
+        <v>198.5941979781885</v>
       </c>
       <c r="K36" t="n">
-        <v>467.3289574932959</v>
+        <v>233.6880290709682</v>
       </c>
       <c r="L36" t="n">
-        <v>391.2511109051113</v>
+        <v>319.5657527356365</v>
       </c>
       <c r="M36" t="n">
-        <v>392.4705525929002</v>
+        <v>392.4705525929003</v>
       </c>
       <c r="N36" t="n">
         <v>417.4122670710403</v>
@@ -37403,10 +37403,10 @@
         <v>268.9270031393573</v>
       </c>
       <c r="Q36" t="n">
-        <v>129.3471489870302</v>
+        <v>339.4244367228792</v>
       </c>
       <c r="R36" t="n">
-        <v>30.84203648445556</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.55407004239309</v>
+        <v>87.55407004239305</v>
       </c>
       <c r="K37" t="n">
         <v>239.095758523712</v>
       </c>
       <c r="L37" t="n">
-        <v>346.4278817823978</v>
+        <v>346.4278817823977</v>
       </c>
       <c r="M37" t="n">
         <v>372.7175216449016</v>
       </c>
       <c r="N37" t="n">
-        <v>370.6727089115568</v>
+        <v>370.6727089115569</v>
       </c>
       <c r="O37" t="n">
         <v>330.4618986568756</v>
@@ -37482,7 +37482,7 @@
         <v>267.0701234461567</v>
       </c>
       <c r="Q37" t="n">
-        <v>117.8110046833497</v>
+        <v>117.8110046833496</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>153.6469802621797</v>
+        <v>153.6469802621798</v>
       </c>
       <c r="K38" t="n">
-        <v>281.5280230734803</v>
+        <v>396.6016732172835</v>
       </c>
       <c r="L38" t="n">
         <v>386.5349139605593</v>
       </c>
       <c r="M38" t="n">
-        <v>911.597433330058</v>
+        <v>462.0838998372257</v>
       </c>
       <c r="N38" t="n">
-        <v>911.5682373462915</v>
+        <v>911.5682373462917</v>
       </c>
       <c r="O38" t="n">
-        <v>434.3237776146177</v>
+        <v>815.1239588773632</v>
       </c>
       <c r="P38" t="n">
-        <v>594.5110885148405</v>
+        <v>335.8357999412199</v>
       </c>
       <c r="Q38" t="n">
-        <v>203.5393595341562</v>
+        <v>415.8543501940609</v>
       </c>
       <c r="R38" t="n">
-        <v>32.12534952286671</v>
+        <v>32.12534952286674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>72.50316263777964</v>
+        <v>198.5941979781885</v>
       </c>
       <c r="K39" t="n">
-        <v>202.8637204807173</v>
+        <v>443.7653168068171</v>
       </c>
       <c r="L39" t="n">
-        <v>686.5583844021454</v>
+        <v>319.5657527356365</v>
       </c>
       <c r="M39" t="n">
-        <v>392.4705525929002</v>
+        <v>392.4705525929003</v>
       </c>
       <c r="N39" t="n">
         <v>417.4122670710403</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.55407004239306</v>
+        <v>87.55407004239308</v>
       </c>
       <c r="K40" t="n">
         <v>239.095758523712</v>
@@ -37710,7 +37710,7 @@
         <v>372.7175216449016</v>
       </c>
       <c r="N40" t="n">
-        <v>370.6727089115568</v>
+        <v>370.6727089115569</v>
       </c>
       <c r="O40" t="n">
         <v>330.4618986568756</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>153.6469802621797</v>
+        <v>153.6469802621798</v>
       </c>
       <c r="K41" t="n">
         <v>281.5280230734803</v>
       </c>
       <c r="L41" t="n">
-        <v>804.1961285110098</v>
+        <v>386.5349139605593</v>
       </c>
       <c r="M41" t="n">
-        <v>462.0838998372255</v>
+        <v>911.5974333300582</v>
       </c>
       <c r="N41" t="n">
-        <v>911.5682373462915</v>
+        <v>636.1298270885252</v>
       </c>
       <c r="O41" t="n">
-        <v>659.1349652576382</v>
+        <v>434.3237776146178</v>
       </c>
       <c r="P41" t="n">
-        <v>335.8357999412198</v>
+        <v>657.6345081127026</v>
       </c>
       <c r="Q41" t="n">
-        <v>203.5393595341562</v>
+        <v>415.8543501940609</v>
       </c>
       <c r="R41" t="n">
-        <v>97.84176939584916</v>
+        <v>32.12534952286674</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>72.50316263777964</v>
+        <v>198.5941979781885</v>
       </c>
       <c r="K42" t="n">
-        <v>202.8637204807173</v>
+        <v>443.7653168068171</v>
       </c>
       <c r="L42" t="n">
         <v>319.5657527356365</v>
       </c>
       <c r="M42" t="n">
-        <v>392.4705525929002</v>
+        <v>392.4705525929003</v>
       </c>
       <c r="N42" t="n">
-        <v>784.4048987375494</v>
+        <v>417.4122670710403</v>
       </c>
       <c r="O42" t="n">
         <v>359.4064386899643</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.55407004239305</v>
+        <v>87.55407004239311</v>
       </c>
       <c r="K43" t="n">
         <v>239.095758523712</v>
       </c>
       <c r="L43" t="n">
-        <v>346.4278817823977</v>
+        <v>346.4278817823978</v>
       </c>
       <c r="M43" t="n">
         <v>372.7175216449016</v>
       </c>
       <c r="N43" t="n">
-        <v>370.6727089115568</v>
+        <v>370.6727089115569</v>
       </c>
       <c r="O43" t="n">
-        <v>330.4618986568755</v>
+        <v>330.4618986568756</v>
       </c>
       <c r="P43" t="n">
-        <v>267.0701234461567</v>
+        <v>267.0701234461568</v>
       </c>
       <c r="Q43" t="n">
-        <v>117.8110046833496</v>
+        <v>117.8110046833497</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>178.9226227559385</v>
+        <v>322.7435954342536</v>
       </c>
       <c r="K44" t="n">
         <v>281.5280230734803</v>
       </c>
       <c r="L44" t="n">
-        <v>804.1961285110098</v>
+        <v>386.5349139605593</v>
       </c>
       <c r="M44" t="n">
-        <v>462.0838998372255</v>
+        <v>462.0838998372257</v>
       </c>
       <c r="N44" t="n">
-        <v>474.2213129343074</v>
+        <v>474.2213129343075</v>
       </c>
       <c r="O44" t="n">
-        <v>815.1239588773631</v>
+        <v>810.9327902166115</v>
       </c>
       <c r="P44" t="n">
-        <v>657.6345081127024</v>
+        <v>657.6345081127026</v>
       </c>
       <c r="Q44" t="n">
-        <v>203.5393595341562</v>
+        <v>415.8543501940609</v>
       </c>
       <c r="R44" t="n">
-        <v>32.12534952286671</v>
+        <v>97.84176939584918</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>72.50316263777964</v>
+        <v>72.50316263777967</v>
       </c>
       <c r="K45" t="n">
-        <v>202.8637204807173</v>
+        <v>467.328957493296</v>
       </c>
       <c r="L45" t="n">
         <v>319.5657527356365</v>
       </c>
       <c r="M45" t="n">
-        <v>392.4705525929002</v>
+        <v>392.4705525929003</v>
       </c>
       <c r="N45" t="n">
         <v>417.4122670710403</v>
       </c>
       <c r="O45" t="n">
-        <v>516.3217826206243</v>
+        <v>359.4064386899643</v>
       </c>
       <c r="P45" t="n">
         <v>268.9270031393573</v>
       </c>
       <c r="Q45" t="n">
-        <v>339.4244367228792</v>
+        <v>231.8745436409603</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>372.7175216449016</v>
       </c>
       <c r="N46" t="n">
-        <v>370.6727089115568</v>
+        <v>370.6727089115569</v>
       </c>
       <c r="O46" t="n">
         <v>330.4618986568756</v>
